--- a/Powerbi_reports/arb_dim_dataset.xlsx
+++ b/Powerbi_reports/arb_dim_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Audio file_1</t>
+          <t>audio_filename</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -468,177 +468,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>صباح الخير مكالمات الرحمة</t>
+          <t>أبو بكر منصور</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>صباح الخير الرحمة تنادي معكم صباح الخير رحمة صباح الخير سيد محمد كيف حالك بخير الحمد لله الحمد لله المضي قدما استفسارك بخصوص نفس الرقم</t>
+          <t>مساء الخير اتصالات فاطمة معك يا أبو بكر منصور أهلا بالأستاذ أبو بكر على هذا الرقم وليس أي رقم آخر؟ لا، نفس الرقم، ارجو مساعدتك، كيف اريد تجديد الباقة؟ تجديد الحزمة؟ حسنًا؟ لحظة معي.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>أ.د. محمد</t>
+          <t>بروفيسور أبو بكر</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>صباح الخير الرحمة تنادي معكم صباح الخير رحمة صباح الخير سيد محمد كيف حالك بخير الحمد لله الحمد لله المضي قدما استفسارك بخصوص نفس الرقم</t>
+          <t>مساء الخير اتصالات فاطمة معك يا أبو بكر منصور أهلا بالأستاذ أبو بكر على هذا الرقم وليس أي رقم آخر؟ لا، نفس الرقم، ارجو مساعدتك، كيف اريد تجديد الباقة؟ تجديد الحزمة؟ حسنًا؟ لحظة معي.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>نفس الرقم</t>
+          <t>رقم آخر</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>صباح الخير الرحمة تنادي معكم صباح الخير رحمة صباح الخير سيد محمد كيف حالك بخير الحمد لله الحمد لله المضي قدما استفسارك بخصوص نفس الرقم</t>
+          <t>مساء الخير اتصالات فاطمة معك يا أبو بكر منصور أهلا بالأستاذ أبو بكر على هذا الرقم وليس أي رقم آخر؟ لا، نفس الرقم، ارجو مساعدتك، كيف اريد تجديد الباقة؟ تجديد الحزمة؟ حسنًا؟ لحظة معي.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>الله</t>
+          <t>نفس الرقم</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>صباح الخير الرحمة تنادي معكم صباح الخير رحمة صباح الخير سيد محمد كيف حالك بخير الحمد لله الحمد لله المضي قدما استفسارك بخصوص نفس الرقم</t>
+          <t>مساء الخير اتصالات فاطمة معك يا أبو بكر منصور أهلا بالأستاذ أبو بكر على هذا الرقم وليس أي رقم آخر؟ لا، نفس الرقم، ارجو مساعدتك، كيف اريد تجديد الباقة؟ تجديد الحزمة؟ حسنًا؟ لحظة معي.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>استخبار</t>
+          <t>المساء</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>صباح الخير الرحمة تنادي معكم صباح الخير رحمة صباح الخير سيد محمد كيف حالك بخير الحمد لله الحمد لله المضي قدما استفسارك بخصوص نفس الرقم</t>
+          <t>مساء الخير اتصالات فاطمة معك يا أبو بكر منصور أهلا بالأستاذ أبو بكر على هذا الرقم وليس أي رقم آخر؟ لا، نفس الرقم، ارجو مساعدتك، كيف اريد تجديد الباقة؟ تجديد الحزمة؟ حسنًا؟ لحظة معي.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13.80</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>سطر</t>
+          <t>فاطمه</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>هل هذا على هذا الخط أم ماذا</t>
+          <t>مساء الخير اتصالات فاطمة معك يا أبو بكر منصور أهلا بالأستاذ أبو بكر على هذا الرقم وليس أي رقم آخر؟ لا، نفس الرقم، ارجو مساعدتك، كيف اريد تجديد الباقة؟ تجديد الحزمة؟ حسنًا؟ لحظة معي.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -660,17 +660,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>دقائق الإنترنت</t>
+          <t>المكالمات</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>دقائق الإنترنت يعني</t>
+          <t>مساء الخير اتصالات فاطمة معك يا أبو بكر منصور أهلا بالأستاذ أبو بكر على هذا الرقم وليس أي رقم آخر؟ لا، نفس الرقم، ارجو مساعدتك، كيف اريد تجديد الباقة؟ تجديد الحزمة؟ حسنًا؟ لحظة معي.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -692,81 +692,81 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20.87</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>الله</t>
+          <t>حزمة</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>سالب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>لا للاسف والله اذا كان هناك عروض تصلكم رساله معهم</t>
+          <t>مساء الخير اتصالات فاطمة معك يا أبو بكر منصور أهلا بالأستاذ أبو بكر على هذا الرقم وليس أي رقم آخر؟ لا، نفس الرقم، ارجو مساعدتك، كيف اريد تجديد الباقة؟ تجديد الحزمة؟ حسنًا؟ لحظة معي.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20.87</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>العروض</t>
+          <t>وقت</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>سالب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>لا للاسف والله اذا كان هناك عروض تصلكم رساله معهم</t>
+          <t>مساء الخير اتصالات فاطمة معك يا أبو بكر منصور أهلا بالأستاذ أبو بكر على هذا الرقم وليس أي رقم آخر؟ لا، نفس الرقم، ارجو مساعدتك، كيف اريد تجديد الباقة؟ تجديد الحزمة؟ حسنًا؟ لحظة معي.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20.87</t>
+          <t>18.20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>رسالة</t>
+          <t>حزمة</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>لا للاسف والله اذا كان هناك عروض تصلكم رساله معهم</t>
+          <t>ما الحزمة ، يا للأسف ، التي تحتاج إلى تجديدها؟ هل يمكن أن تخبرني؟</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -788,17 +788,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25.55</t>
+          <t>20.60</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>إنترنت</t>
+          <t>نفس البرنامج</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>هل الإنترنت معك</t>
+          <t>نفس البرنامج ، نفس الحزمة؟</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -820,17 +820,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>20.60</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>شيء</t>
+          <t>نفس الباقة</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>حسنا ، ليس شيئا أطلبه ، لا أقوم بتقليل شيء مثل خطوط البيع ، أعني أنه لا يوجد شيء على الإطلاق ما هو السبب</t>
+          <t>نفس البرنامج ، نفس الحزمة؟</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -852,17 +852,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>20.60</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>اسطر</t>
+          <t>نفس البرنامج</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>حسنا ، ليس شيئا أطلبه ، لا أقوم بتقليل شيء مثل خطوط البيع ، أعني أنه لا يوجد شيء على الإطلاق ما هو السبب</t>
+          <t>نفس البرنامج ، نفس الحزمة.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -884,17 +884,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>20.60</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>سبب</t>
+          <t>نفس الباقة</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>حسنا ، ليس شيئا أطلبه ، لا أقوم بتقليل شيء مثل خطوط البيع ، أعني أنه لا يوجد شيء على الإطلاق ما هو السبب</t>
+          <t>نفس البرنامج ، نفس الحزمة.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -916,49 +916,49 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>39.32</t>
+          <t>22.60</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>سبب</t>
+          <t>نفس الباقة</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>لا ، لا يوجد سبب ولكن إذا كان يمكن أن يكون ولكنك تركز على الأسلحة التي تأتي إلينا لأن هذه الأسلحة لديها إذا كان هناك عرض أو شيء يمكنك الاستفادة منه</t>
+          <t>نفس الحزمة تماما ، نفس الحزمة.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>39.32</t>
+          <t>34.91</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>البنادق</t>
+          <t>حزمة</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>لا ، لا يوجد سبب ولكن إذا كان يمكن أن يكون ولكنك تركز على الأسلحة التي تأتي إلينا لأن هذه الأسلحة لديها إذا كان هناك عرض أو شيء يمكنك الاستفادة منه</t>
+          <t>هل الحزمة التي لديك في الوقت الحالي؟ هل الحزمة 25؟</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -980,17 +980,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>39.32</t>
+          <t>34.91</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>عرض</t>
+          <t>وقت</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>لا ، لا يوجد سبب ولكن إذا كان يمكن أن يكون ولكنك تركز على الأسلحة التي تأتي إلينا لأن هذه الأسلحة لديها إذا كان هناك عرض أو شيء يمكنك الاستفادة منه</t>
+          <t>هل الحزمة التي لديك في الوقت الحالي؟ هل الحزمة 25؟</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1012,17 +1012,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>39.32</t>
+          <t>41.60</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>شيء</t>
+          <t>وقت</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>لا ، لا يوجد سبب ولكن إذا كان يمكن أن يكون ولكنك تركز على الأسلحة التي تأتي إلينا لأن هذه الأسلحة لديها إذا كان هناك عرض أو شيء يمكنك الاستفادة منه</t>
+          <t>حسنًا؟ لحظة معي وسأجددها لك على الفور ، وبعد ذلك ، إذا كنت ترغب في تجديدها ، فمن الممكن الاتصال ب * 566 #.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1044,15 +1044,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>51.35</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>48.95</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>مائة قاعة</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>محايد</t>
@@ -1060,7 +1064,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>حسنًا</t>
+          <t>مائة قاعة وعلينا إلغاؤها ، خصم رصيدي بعد الانتهاء من الحزمة.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1072,49 +1076,49 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>54.21</t>
+          <t>48.95</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>خدمة</t>
+          <t>توازن</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>في خدمتك ، أي شيء يمكنني مساعدتك فيه مرة أخرى.</t>
+          <t>مائة قاعة وعلينا إلغاؤها ، خصم رصيدي بعد الانتهاء من الحزمة.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>57.57</t>
+          <t>48.95</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>هدايت نت</t>
+          <t>حزمة</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1124,7 +1128,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>هل قالوا أن هناك شبكة هدايت أو شيء من هذا القبيل</t>
+          <t>مائة قاعة وعلينا إلغاؤها ، خصم رصيدي بعد الانتهاء من الحزمة.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1136,17 +1140,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>57.57</t>
+          <t>54.95</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>شيء</t>
+          <t>توازن</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1156,7 +1160,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>هل قالوا أن هناك شبكة هدايت أو شيء من هذا القبيل</t>
+          <t>حسنا ، حسنا ، العمل يعني إيقاف التوازن.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1168,15 +1172,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>62.76</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>60.48</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>حزم</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>محايد</t>
@@ -1184,7 +1192,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>لم نقل شيئا عن ذلك</t>
+          <t>خارج الحزمة.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1196,120 +1204,4052 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>65.87</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>63.47</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>رصيد الهاتف</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>إذا جاء إليك ، فلا تقلق.</t>
+          <t>أصبحت من البقية. لا أريد ذلك ، لذلك لا تأخذ من رصيد الهاتف.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>68.11</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>63.47</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>استراح</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>سالب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>انها ليست منتهية الصلاحية لا يوجد شيء فيها</t>
+          <t>أصبحت من البقية. لا أريد ذلك ، لذلك لا تأخذ من رصيد الهاتف.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>72.92</t>
+          <t>66.59</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>استفسار آخر</t>
+          <t>حزمة</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>شكرا. حسنا، على الرحب والسعة. سأحاول أيضا المتابعة معك. إذا كان هناك أي شيء ، سأتحدث إليك مرة أخرى. شكرا. عفوًا. في خدمتكم. أي استفسار آخر. عفوًا.</t>
+          <t>حسنا ، لماذا انتهت الحزمة؟ ما الذي يتم خصمه من هذا الائتمان الذي تحتاجه ، أليس كذلك؟</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 1</t>
+          <t>اتصل بالرقم 26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>72.92</t>
+          <t>66.59</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>تسليف</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>حسنا ، لماذا انتهت الحزمة؟ ما الذي يتم خصمه من هذا الائتمان الذي تحتاجه ، أليس كذلك؟</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 26</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>66.59</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>حزمة</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>حسنًا؟ عند الانتهاء من الباقة ما الذي يتم خصمه من هذا الرصيد الذي تحتاجه صحيح؟</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 26</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>66.59</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>توازن</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>حسنًا؟ عند الانتهاء من الباقة ما الذي يتم خصمه من هذا الرصيد الذي تحتاجه صحيح؟</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 26</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>70.19</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ايوا</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ايوا.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 26</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>66.59</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>حزمة</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>حسنا ، لماذا انتهت الحزمة؟ ما الذي يتم خصمه من هذا الائتمان الذي تحتاجه ، أليس كذلك؟</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 26</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>66.59</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>تسليف</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>حسنا ، لماذا انتهت الحزمة؟ ما الذي يتم خصمه من هذا الائتمان الذي تحتاجه ، أليس كذلك؟</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 26</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>70.19</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ايوا</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ايوا</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 26</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>حسنًا. نحن نفعل ذلك من أجلك الآن.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 26</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>بروفيسور أبو بكر</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>الخلاص أنا هكذا أيضا. لقد فعلت لك يا أستاذ أبو بكر.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 26</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>خلاص</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>الخلاص أنا هكذا أيضا. لقد فعلت لك يا أستاذ أبو بكر.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 26</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>إنترنت</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>وألغيت إلغاء شكرا. بارك الله فيك. أفتقد الإنترنت ، هل هذا طبيعي؟</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 26</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>إنترنت</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>نعم. نحن نستخدم هذا الإنترنت.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 26</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>هل تستخدمه الآن كالمعتاد معك؟</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 26</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>رافقتك السلامة.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>اسم</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>معك يشرفني الاسم؟</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>صباح سيدي</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>الو. صباح الخير سيدي. يشرفني أن أسميك.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>الو</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>الو. صباح الخير سيدي. يشرفني أن أسميك.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>شرف</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>الو. صباح الخير سيدي. يشرفني أن أسميك.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>الصباح</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>صباح الخير، سيدي، يشرفني أن أتكلم بالنيابة عنكم.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>سيد</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>صباح الخير، سيدي، يشرفني أن أتكلم بالنيابة عنكم.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>شرف</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>صباح الخير، سيدي، يشرفني أن أتكلم بالنيابة عنكم.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>نيابه</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>صباح الخير، سيدي، يشرفني أن أتكلم بالنيابة عنكم.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>صباح الخير.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>سلام</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>السلام عليكم السلام سيدي. يشرفني أن أتكلم بالنيابة عنكم.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>الشرف</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>السلام عليكم السلام سيدي. يشرفني أن أتكلم بالنيابة عنكم.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>نيابه</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>السلام عليكم السلام سيدي. يشرفني أن أتكلم بالنيابة عنكم.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>هل يمكنك سماعي يا سيدي؟</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>29.68</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>السيد عبد العزيز</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>نعم، أسمعك، حب العيد معك، أهلا بك سيد عبد العزيز. استفسارك بخصوص نفس الرقم أم يوجد رقم آخر؟ لا يوجد نفس الرقم. كيف هي مدرسة معلمك المحترم يا سيدي؟</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>29.68</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>المعلم المحترم</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>نعم، أسمعك، حب العيد معك، أهلا بك سيد عبد العزيز. استفسارك بخصوص نفس الرقم أم يوجد رقم آخر؟ لا يوجد نفس الرقم. كيف هي مدرسة معلمك المحترم يا سيدي؟</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>29.68</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>نفس الرقم</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>نعم، أسمعك، حب العيد معك، أهلا بك سيد عبد العزيز. استفسارك بخصوص نفس الرقم أم يوجد رقم آخر؟ لا يوجد نفس الرقم. كيف هي مدرسة معلمك المحترم يا سيدي؟</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>29.68</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>حب</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>نعم، أسمعك، حب العيد معك، أهلا بك سيد عبد العزيز. استفسارك بخصوص نفس الرقم أم يوجد رقم آخر؟ لا يوجد نفس الرقم. كيف هي مدرسة معلمك المحترم يا سيدي؟</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>29.68</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>العيد</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>نعم، أسمعك، حب العيد معك، أهلا بك سيد عبد العزيز. استفسارك بخصوص نفس الرقم أم يوجد رقم آخر؟ لا يوجد نفس الرقم. كيف هي مدرسة معلمك المحترم يا سيدي؟</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>29.68</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>استخبار</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>نعم، أسمعك، حب العيد معك، أهلا بك سيد عبد العزيز. استفسارك بخصوص نفس الرقم أم يوجد رقم آخر؟ لا يوجد نفس الرقم. كيف هي مدرسة معلمك المحترم يا سيدي؟</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>29.68</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>مدرسة</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>نعم، أسمعك، حب العيد معك، أهلا بك سيد عبد العزيز. استفسارك بخصوص نفس الرقم أم يوجد رقم آخر؟ لا يوجد نفس الرقم. كيف هي مدرسة معلمك المحترم يا سيدي؟</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>39.50</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>رصيد ثلاثة أشهر</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>رصيد ثلاثة أشهر 140. أنا فقط أريد أن أعرف.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>45.04</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>أم لا؟</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>باقه</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ما باقة يا سيدي؟</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>52.92</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>أيهما 21,000 أنا فقط؟</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>عمل</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>لقد غيرته مع عملها.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>الله سبحانه وتعالى</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>وهو 125 لكنني كنت آخر شاب ، أنا مدين لله سبحانه وتعالى 36 ، 35000 وهو ضخم.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>يا ثأر</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ما المخلوق الذي تم تجديده يا فيندوم؟ الحزمة 125 هي التي لا تسمعها ، الحزمة التي تم تجديدها تسمى Hiji ، لذلك يؤسفني حزمة 125D الموجودة على خطك.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>حزمة 125D</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ما المخلوق الذي تم تجديده يا فيندوم؟ الحزمة 125 هي التي لا تسمعها ، الحزمة التي تم تجديدها تسمى Hiji ، لذلك يؤسفني حزمة 125D الموجودة على خطك.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>125 طرد</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ما المخلوق الذي تم تجديده يا فيندوم؟ الحزمة 125 هي التي لا تسمعها ، الحزمة التي تم تجديدها تسمى Hiji ، لذلك يؤسفني حزمة 125D الموجودة على خطك.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>مخلوق</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ما المخلوق الذي تم تجديده يا فيندوم؟ الحزمة 125 هي التي لا تسمعها ، الحزمة التي تم تجديدها تسمى Hiji ، لذلك يؤسفني حزمة 125D الموجودة على خطك.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>واحد</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ما المخلوق الذي تم تجديده يا فيندوم؟ الحزمة 125 هي التي لا تسمعها ، الحزمة التي تم تجديدها تسمى Hiji ، لذلك يؤسفني حزمة 125D الموجودة على خطك.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>سطر</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ما المخلوق الذي تم تجديده يا فيندوم؟ الحزمة 125 هي التي لا تسمعها ، الحزمة التي تم تجديدها تسمى Hiji ، لذلك يؤسفني حزمة 125D الموجودة على خطك.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ماذا؟</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>متجدد معك؟</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>حسنًا، لا بأس بذلك. شكرا.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>سؤال آخر</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>أي سؤال آخر أو أي شيء يمكنني مساعدتك به؟</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 27</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>اتصالات</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>لقد شرفتنا يا سيدي. هل نحن سعداء بخدمتك في اتصالات؟</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>رجب محمود</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>صباح الخير ، اتصلت بعنوانك ، صباح النور. هل لي أن أتشرف بالاسم؟ رجب محمود؟ كيف؟ سعادتكم؟ أهلًا وسهلًا؟ الاستفسار عن نفس الرقم؟ نفس الرقم؟ تفضل يا سيدي. هل أنا شرفك؟</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>نفس الرقم</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>صباح الخير ، اتصلت بعنوانك ، صباح النور. هل لي أن أتشرف بالاسم؟ رجب محمود؟ كيف؟ سعادتكم؟ أهلًا وسهلًا؟ الاستفسار عن نفس الرقم؟ نفس الرقم؟ تفضل يا سيدي. هل أنا شرفك؟</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>عنوان</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>صباح الخير ، اتصلت بعنوانك ، صباح النور. هل لي أن أتشرف بالاسم؟ رجب محمود؟ كيف؟ سعادتكم؟ أهلًا وسهلًا؟ الاستفسار عن نفس الرقم؟ نفس الرقم؟ تفضل يا سيدي. هل أنا شرفك؟</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ضوء</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>صباح الخير ، اتصلت بعنوانك ، صباح النور. هل لي أن أتشرف بالاسم؟ رجب محمود؟ كيف؟ سعادتكم؟ أهلًا وسهلًا؟ الاستفسار عن نفس الرقم؟ نفس الرقم؟ تفضل يا سيدي. هل أنا شرفك؟</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>اسم</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>صباح الخير ، اتصلت بعنوانك ، صباح النور. هل لي أن أتشرف بالاسم؟ رجب محمود؟ كيف؟ سعادتكم؟ أهلًا وسهلًا؟ الاستفسار عن نفس الرقم؟ نفس الرقم؟ تفضل يا سيدي. هل أنا شرفك؟</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>شرف</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>صباح الخير ، اتصلت بعنوانك ، صباح النور. هل لي أن أتشرف بالاسم؟ رجب محمود؟ كيف؟ سعادتكم؟ أهلًا وسهلًا؟ الاستفسار عن نفس الرقم؟ نفس الرقم؟ تفضل يا سيدي. هل أنا شرفك؟</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>استخبار</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>صباح الخير ، اتصلت بعنوانك ، صباح النور. هل لي أن أتشرف بالاسم؟ رجب محمود؟ كيف؟ سعادتكم؟ أهلًا وسهلًا؟ الاستفسار عن نفس الرقم؟ نفس الرقم؟ تفضل يا سيدي. هل أنا شرفك؟</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>إنترنت</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>هل أرغب في توصيل الإنترنت بمنزل؟</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>المنزل</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>هل أرغب في توصيل الإنترنت بمنزل؟</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>حسنًا؟</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>الاختيار الصحيح</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>أنا آسف ، ليس لدي خط أرضي. قل لي أن الاختيار الصحيح هو من بدري.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>الهاتف الثابت</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>أنا آسف ، ليس لدي خط أرضي. قل لي أن الاختيار الصحيح هو من بدري.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>بدري</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>أنا آسف ، ليس لدي خط أرضي. قل لي أن الاختيار الصحيح هو من بدري.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>جهات الاتصال</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>أعني أنك اعتقدت أنك اشتريت مع جهات الاتصال؟</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>38.08</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>العروض</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>ما هي العروض؟</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>47.11</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>الهاتف الثابت</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>إنه ليس. أليس خطا أرضيا؟ لا ، الهوائي صحيح تقريبا؟</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>47.11</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>هوائي</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>إنه ليس. أليس خطا أرضيا؟ لا ، الهوائي صحيح تقريبا؟</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>54.67</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ادي</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>إنه إيدي ، اسأل أيضا أو.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>59.52</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>الآن تتم طباعة صورهم معك.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>63.84</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>هوائي الإنترنت</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>القسم المعني بهوائي الإنترنت سينقلك إليهم على الفور. هيتموا.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>63.84</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>قسم</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>القسم المعني بهوائي الإنترنت سينقلك إليهم على الفور. هيتموا.</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>63.84</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>هيتموا</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>القسم المعني بهوائي الإنترنت سينقلك إليهم على الفور. هيتموا.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>67.72</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>العنود المتاحة</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>أريد الاستفسار عن أي نوع متاح و .</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>الإنترنت الجوي</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>سوف يشرح لك الخلاص. أمشي مع الإنترنت الجوي ، أنتظر الآن ، أعني ، أوه الآن ، وجودك ليس مغلقا حتى ثاني هيكل شرفك؟</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>خلاص</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>سوف يشرح لك الخلاص. أمشي مع الإنترنت الجوي ، أنتظر الآن ، أعني ، أوه الآن ، وجودك ليس مغلقا حتى ثاني هيكل شرفك؟</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>حضور</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>سوف يشرح لك الخلاص. أمشي مع الإنترنت الجوي ، أنتظر الآن ، أعني ، أوه الآن ، وجودك ليس مغلقا حتى ثاني هيكل شرفك؟</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>شرف</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>سوف يشرح لك الخلاص. أمشي مع الإنترنت الجوي ، أنتظر الآن ، أعني ، أوه الآن ، وجودك ليس مغلقا حتى ثاني هيكل شرفك؟</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>هيكل</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>سوف يشرح لك الخلاص. أمشي مع الإنترنت الجوي ، أنتظر الآن ، أعني ، أوه الآن ، وجودك ليس مغلقا حتى ثاني هيكل شرفك؟</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>الإنترنت الجوي</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>هل سيشرحها لوجودك ، الخلاص يمشي على الإنترنت الجوي ، أنا أنتظر الآن ، أعني ، أوه ، الآن لم يتم إغلاق وجودك حتى الثانية من هيكلك؟</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>حضور</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>هل سيشرحها لوجودك ، الخلاص يمشي على الإنترنت الجوي ، أنا أنتظر الآن ، أعني ، أوه ، الآن لم يتم إغلاق وجودك حتى الثانية من هيكلك؟</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>خلاص</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>هل سيشرحها لوجودك ، الخلاص يمشي على الإنترنت الجوي ، أنا أنتظر الآن ، أعني ، أوه ، الآن لم يتم إغلاق وجودك حتى الثانية من هيكلك؟</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>هيكل</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>هل سيشرحها لوجودك ، الخلاص يمشي على الإنترنت الجوي ، أنا أنتظر الآن ، أعني ، أوه ، الآن لم يتم إغلاق وجودك حتى الثانية من هيكلك؟</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>حسنا ، حسنا ، حسنا ، شكرا لك ، حسنا؟</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>إنه اكتمل. حسنا ، حسنا ، شكرا لك.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>عفو</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>عذرا ، بالطبع ، في خدمتك ، المكالمات تضحك.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>خدمة</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>موجب</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>شكرا. حسنا، على الرحب والسعة. سأحاول أيضا المتابعة معك. إذا كان هناك أي شيء ، سأتحدث إليك مرة أخرى. شكرا. عفوًا. في خدمتكم. أي استفسار آخر. عفوًا.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>عذرا ، بالطبع ، في خدمتك ، المكالمات تضحك.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>المكالمات</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>عذرا ، بالطبع ، في خدمتك ، المكالمات تضحك.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>حسنا ، حسنا ، حسنا. شكرا لك ، حسنا.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>عفو</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>عذرا ، بالطبع ، في خدمتك ، المكالمات تضحك.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>خدمة</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>عذرا ، بالطبع ، في خدمتك ، المكالمات تضحك.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>المكالمات</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>عذرا ، بالطبع ، في خدمتك ، المكالمات تضحك.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 29</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>حسنًا شكرًا لك.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>السيد محمود</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>صباح الخير ، اتصالاتنا معك. صباح الخير سيدي. صباح الخير. يشرفني أن أتكلم بالنيابة عنكم. أهلا بك سيد محمود هل يمكنني مساعدتك على نفس الرقم أو على رقم آخر؟</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>نفس الرقم</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>صباح الخير ، اتصالاتنا معك. صباح الخير سيدي. صباح الخير. يشرفني أن أتكلم بالنيابة عنكم. أهلا بك سيد محمود هل يمكنني مساعدتك على نفس الرقم أو على رقم آخر؟</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>جهات الاتصال</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>صباح الخير ، اتصالاتنا معك. صباح الخير سيدي. صباح الخير. يشرفني أن أتكلم بالنيابة عنكم. أهلا بك سيد محمود هل يمكنني مساعدتك على نفس الرقم أو على رقم آخر؟</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>الصباح</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>صباح الخير ، اتصالاتنا معك. صباح الخير سيدي. صباح الخير. يشرفني أن أتكلم بالنيابة عنكم. أهلا بك سيد محمود هل يمكنني مساعدتك على نفس الرقم أو على رقم آخر؟</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>الشرف</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>صباح الخير ، اتصالاتنا معك. صباح الخير سيدي. صباح الخير. يشرفني أن أتكلم بالنيابة عنكم. أهلا بك سيد محمود هل يمكنني مساعدتك على نفس الرقم أو على رقم آخر؟</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>نيابه</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>صباح الخير ، اتصالاتنا معك. صباح الخير سيدي. صباح الخير. يشرفني أن أتكلم بالنيابة عنكم. أهلا بك سيد محمود هل يمكنني مساعدتك على نفس الرقم أو على رقم آخر؟</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>بنت</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>هل كانت هناك فتاة تتصل بي من الشركة؟ حسنا ، من المفترض أن تكون هي الشخص الذي من المفترض أن يكون الشخص الذي فعل ما أريد ليس مثاليا؟</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>شركة</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>هل كانت هناك فتاة تتصل بي من الشركة؟ حسنا ، من المفترض أن تكون هي الشخص الذي من المفترض أن يكون الشخص الذي فعل ما أريد ليس مثاليا؟</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>واحد</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>هل كانت هناك فتاة تتصل بي من الشركة؟ حسنا ، من المفترض أن تكون هي الشخص الذي من المفترض أن يكون الشخص الذي فعل ما أريد ليس مثاليا؟</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>السيدة مي تمام</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>من هي السيدة مي تمام؟</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>أعني ، هل تريد إعادته مرة أخرى؟ ولا تكمل؟ هل أنا معك؟</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>البروفيسورة مي</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>هل تريد أن تعني أن الأستاذة مي تحدثت إليك ، أم أنني الشخص الذي استمر معك؟</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>واحد</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>هل تريد أن تعني أن الأستاذة مي تحدثت إليك ، أم أنني الشخص الذي استمر معك؟</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>46.31</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>هل ترغب في إعادته مرة أخرى؟</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ميل داخلي</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>آسف ، أعتذر لك كثيرا. بالطبع ، لحظات معي أن لدينا ميلا داخليا بيني وبينه ، وأنا أتحدث إليكم على طول.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>اللحظات</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>آسف ، أعتذر لك كثيرا. بالطبع ، لحظات معي أن لدينا ميلا داخليا بيني وبينه ، وأنا أتحدث إليكم على طول.</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>اي شيء</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>أي شيء آخر يمكنني مساعدتك فيه؟</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>يوم سعيد</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>أنتم حضوركم بصلواتكم وأتمنى لكم يوما سعيدا إن شاء الله. وداعا سيدي.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>حضور</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>أنتم حضوركم بصلواتكم وأتمنى لكم يوما سعيدا إن شاء الله. وداعا سيدي.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>الصلاوات</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>أنتم حضوركم بصلواتكم وأتمنى لكم يوما سعيدا إن شاء الله. وداعا سيدي.</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>الله</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>أنتم حضوركم بصلواتكم وأتمنى لكم يوما سعيدا إن شاء الله. وداعا سيدي.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>وداعًا</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>أنتم حضوركم بصلواتكم وأتمنى لكم يوما سعيدا إن شاء الله. وداعا سيدي.</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>سيد</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>أنتم حضوركم بصلواتكم وأتمنى لكم يوما سعيدا إن شاء الله. وداعا سيدي.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>يوم</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>في يوم واحد.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>71.24</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>التحويل المباشر</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>حضورك معي يا فنديم. هل يمكنك نقلي؟ حسنًا؟ ما الذي ستتحدث به مرة أخرى ، ليس لدي نقل مباشر إلى الزملاء ، ستعود إلى خطابك ، من المفترض أن أعني وهي تتحدث معي آه.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>71.24</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>حضور</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>حضورك معي يا فنديم. هل يمكنك نقلي؟ حسنًا؟ ما الذي ستتحدث به مرة أخرى ، ليس لدي نقل مباشر إلى الزملاء ، ستعود إلى خطابك ، من المفترض أن أعني وهي تتحدث معي آه.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>71.24</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>فينديم</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>حضورك معي يا فنديم. هل يمكنك نقلي؟ حسنًا؟ ما الذي ستتحدث به مرة أخرى ، ليس لدي نقل مباشر إلى الزملاء ، ستعود إلى خطابك ، من المفترض أن أعني وهي تتحدث معي آه.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>71.24</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>الزملاء</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>حضورك معي يا فنديم. هل يمكنك نقلي؟ حسنًا؟ ما الذي ستتحدث به مرة أخرى ، ليس لدي نقل مباشر إلى الزملاء ، ستعود إلى خطابك ، من المفترض أن أعني وهي تتحدث معي آه.</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>71.24</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>كلام</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>حضورك معي يا فنديم. هل يمكنك نقلي؟ حسنًا؟ ما الذي ستتحدث به مرة أخرى ، ليس لدي نقل مباشر إلى الزملاء ، ستعود إلى خطابك ، من المفترض أن أعني وهي تتحدث معي آه.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>آه ، إنها ستعود. أتحدث إليك ، لا تقلق.</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>السيد محمود</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>هل هناك أي شيء آخر يا سيد محمود؟</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>وداعًا</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>وداعا سيدي.</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>اتصل بالرقم 30</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>سيد</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>وداعا سيدي.</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/Powerbi_reports/arb_dim_dataset.xlsx
+++ b/Powerbi_reports/arb_dim_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F287"/>
+  <dimension ref="A1:F207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,241 +468,241 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>بعد الظهيرة</t>
+          <t>جهات الاتصال</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>مساء الخير.</t>
+          <t>صباح الخير. جهات الاتصال التي تحبها معك. صباح الخير سيدي. صباح الخير.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>مساء الخير</t>
+          <t>الصباح</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>مختلط</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>مساء الخير. رجاءً. أنا في كولتون ولن أفعل ذلك ، لم أطلب ذلك ، لم أختره.</t>
+          <t>صباح الخير. جهات الاتصال التي تحبها معك. صباح الخير سيدي. صباح الخير.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>كولتون</t>
+          <t>سيد</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>مختلط</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>مساء الخير. رجاءً. أنا في كولتون ولن أفعل ذلك ، لم أطلب ذلك ، لم أختره.</t>
+          <t>صباح الخير. جهات الاتصال التي تحبها معك. صباح الخير سيدي. صباح الخير.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>مساء الخير</t>
+          <t>أستاذ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>مختلط</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>مساء الخير. رجاءً. أنا في كولتون ولن أفعل ذلك ، لم أطلب ذلك ، لم أختره.</t>
+          <t>أهلا بك يا سيدي. ما الجديد معك يا أستاذ؟ حسنا، الحمد لله؟</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>كولتون</t>
+          <t>مهمة</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>مختلط</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>مساء الخير. رجاءً. أنا في كولتون ولن أفعل ذلك ، لم أطلب ذلك ، لم أختره.</t>
+          <t>أنا آسف بالطبع. لا ، لا ، ولا تقلق ، لكن لدي وظيفة. الآن ، لدي فاتورة 1300 وأردت دفع جزء منها.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>نفس الرقم</t>
+          <t>فاتورة</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>على نفس الرقم ، O.</t>
+          <t>أنا آسف بالطبع. لا ، لا ، ولا تقلق ، لكن لدي وظيفة. الآن ، لدي فاتورة 1300 وأردت دفع جزء منها.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>O.</t>
+          <t>جزء</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>على نفس الرقم ، O.</t>
+          <t>أنا آسف بالطبع. لا ، لا ، ولا تقلق ، لكن لدي وظيفة. الآن ، لدي فاتورة 1300 وأردت دفع جزء منها.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>25.84</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>نفس الرقم</t>
+          <t>الجزء الشرقي</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>على نفس الرقم ، O.</t>
+          <t>الجزء الشرقي الذي ليس هو العمل ليس هذا العمل.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -724,17 +724,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>25.84</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>O.</t>
+          <t>عمل</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>على نفس الرقم ، O.</t>
+          <t>الجزء الشرقي الذي ليس هو العمل ليس هذا العمل.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -756,49 +756,49 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13.57</t>
+          <t>29.47</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>نفس الرقم</t>
+          <t>الشهر المقبل</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>سالب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>وأعرب عن أسفه لنفس العدد. آه.</t>
+          <t>أقساط اه. لكنني لا أريد أن أفتح. أود فتحه على سبيل المثال من بداية الشهر المقبل؟</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15.21</t>
+          <t>29.47</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>لحظة</t>
+          <t>اقساط</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>بأمرك على الفور ، يا فنديم. لحظة واحدة من فضلك.</t>
+          <t>أقساط اه. لكنني لا أريد أن أفتح. أود فتحه على سبيل المثال من بداية الشهر المقبل؟</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -820,17 +820,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15.21</t>
+          <t>29.47</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>أمر</t>
+          <t>مثل</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>بأمرك على الفور ، يا فنديم. لحظة واحدة من فضلك.</t>
+          <t>أقساط اه. لكنني لا أريد أن أفتح. أود فتحه على سبيل المثال من بداية الشهر المقبل؟</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -852,17 +852,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15.21</t>
+          <t>29.47</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>فينديم</t>
+          <t>بدء</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>بأمرك على الفور ، يا فنديم. لحظة واحدة من فضلك.</t>
+          <t>أقساط اه. لكنني لا أريد أن أفتح. أود فتحه على سبيل المثال من بداية الشهر المقبل؟</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -884,113 +884,113 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21.75</t>
+          <t>37.87</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>اطاله امد</t>
+          <t>جزأين</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>سالب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>بالطبع ، أعتذر كثيرا عن الإطالة.</t>
+          <t>يعني هل تريد اقساطها من بداية الشهر القادم ؟ أسمعك؟ نعم ، جزء وفي نهاية الشهر ، أدفع جزأين ، اليوم الذي كان لديك فيه الشهر التالي.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31.36</t>
+          <t>37.87</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>شرف</t>
+          <t>الشهر المقبل</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>سالب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>أنا آسف جدا. ولكن هل لي أن أتشرف بالتحدث نيابة عنكم مرة أخرى؟</t>
+          <t>يعني هل تريد اقساطها من بداية الشهر القادم ؟ أسمعك؟ نعم ، جزء وفي نهاية الشهر ، أدفع جزأين ، اليوم الذي كان لديك فيه الشهر التالي.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31.36</t>
+          <t>37.87</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>نيابه</t>
+          <t>اقساط</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>سالب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>أنا آسف جدا. ولكن هل لي أن أتشرف بالتحدث نيابة عنكم مرة أخرى؟</t>
+          <t>يعني هل تريد اقساطها من بداية الشهر القادم ؟ أسمعك؟ نعم ، جزء وفي نهاية الشهر ، أدفع جزأين ، اليوم الذي كان لديك فيه الشهر التالي.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>34.31</t>
+          <t>37.87</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>حمدي</t>
+          <t>بدء</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>استمع إلى حمدي.</t>
+          <t>يعني هل تريد اقساطها من بداية الشهر القادم ؟ أسمعك؟ نعم ، جزء وفي نهاية الشهر ، أدفع جزأين ، اليوم الذي كان لديك فيه الشهر التالي.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1012,17 +1012,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>34.87</t>
+          <t>37.87</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>السيد أسماء</t>
+          <t>انتهاء</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>تحت قيادة فخامتك ، بالطبع ، سيد أسماء ، لحظة معي ، لكن من فضلك.</t>
+          <t>يعني هل تريد اقساطها من بداية الشهر القادم ؟ أسمعك؟ نعم ، جزء وفي نهاية الشهر ، أدفع جزأين ، اليوم الذي كان لديك فيه الشهر التالي.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1044,19 +1044,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>34.87</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>أمر</t>
-        </is>
-      </c>
+          <t>47.63</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
           <t>محايد</t>
@@ -1064,7 +1060,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>تحت قيادة فخامتك ، بالطبع ، سيد أسماء ، لحظة معي ، لكن من فضلك.</t>
+          <t>أعني ، ربما في السادس أو السابع؟</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1076,17 +1072,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>34.87</t>
+          <t>52.52</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>شرف</t>
+          <t>اليوم الخامس</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1096,7 +1092,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>تحت قيادة فخامتك ، بالطبع ، سيد أسماء ، لحظة معي ، لكن من فضلك.</t>
+          <t>حسنا ، أنت هكذا ، لديك صلاحية بشكل أساسي حتى اليوم الخامس من الشهر القادم بالفعل.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1108,17 +1104,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>34.87</t>
+          <t>52.52</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>وقت</t>
+          <t>صحة</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1128,7 +1124,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>تحت قيادة فخامتك ، بالطبع ، سيد أسماء ، لحظة معي ، لكن من فضلك.</t>
+          <t>حسنا ، أنت هكذا ، لديك صلاحية بشكل أساسي حتى اليوم الخامس من الشهر القادم بالفعل.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1140,17 +1136,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>47.05</t>
+          <t>52.52</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>كولتون هيشال</t>
+          <t>شهر</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1160,7 +1156,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>في الحال سيدي. كولتون هيشال معك.</t>
+          <t>حسنا ، أنت هكذا ، لديك صلاحية بشكل أساسي حتى اليوم الخامس من الشهر القادم بالفعل.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1172,17 +1168,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>47.05</t>
+          <t>56.75</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>سيد</t>
+          <t>الشهر المقبل</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1192,7 +1188,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>في الحال سيدي. كولتون هيشال معك.</t>
+          <t>حسنا ، ليس عليك دفع أي شيء معك الآن حتى الشهر المقبل. الآن أريد أن أرفع.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1204,17 +1200,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>48.89</t>
+          <t>65.28</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>احتياج</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1224,7 +1220,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>رجاءً. إذا سمحت لي بالمشاركة في أي حاجة أخرجوني منها ، فلا أريد المشاركة في أي شيء.</t>
+          <t>ليس عليك دفع أي شيء. الآن في 56 من الليل ، في 56 ، ستتحدث إلينا وتخبرنا أنني أريد دفع هذه الفاتورة؟ أو هل أريد تقسيم هذه الفاتورة؟</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1236,81 +1232,81 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>56.35</t>
+          <t>65.28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>يا فندم</t>
+          <t>الليل</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>لا توجد مشكلة تحت قيادتك يا فنديم. شكرا جزيلا.</t>
+          <t>ليس عليك دفع أي شيء. الآن في 56 من الليل ، في 56 ، ستتحدث إلينا وتخبرنا أنني أريد دفع هذه الفاتورة؟ أو هل أريد تقسيم هذه الفاتورة؟</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>56.35</t>
+          <t>65.28</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>مشكلة</t>
+          <t>فاتورة</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>لا توجد مشكلة تحت قيادتك يا فنديم. شكرا جزيلا.</t>
+          <t>ليس عليك دفع أي شيء. الآن في 56 من الليل ، في 56 ، ستتحدث إلينا وتخبرنا أنني أريد دفع هذه الفاتورة؟ أو هل أريد تقسيم هذه الفاتورة؟</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>56.35</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>أمر</t>
+          <t>المرة الأولى</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1320,7 +1316,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>لا توجد مشكلة تحت قيادتك يا فنديم. شكرا جزيلا.</t>
+          <t>سنجعلك 23 مع المرة الأولى التي ستدفع فيها وفي المرة الثانية ستدفع طالما أنك تريد دفعها مرتين طالما تريد دفعها مرتين؟ حسنا ، لا مشكلة ، حسنا. وإذا كان لدي أي حاجة جديدة ، أعني ، سأتابع أيضا مع قسم الائتمان وأحسب لك إذا كان هناك أي حاجة أليس كذلك؟</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1332,237 +1328,241 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>62.76</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>لحظة</t>
+          <t>المرة الثانية</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>لحظة واحدة ، من فضلك ، معي؟</t>
+          <t>سنجعلك 23 مع المرة الأولى التي ستدفع فيها وفي المرة الثانية ستدفع طالما أنك تريد دفعها مرتين طالما تريد دفعها مرتين؟ حسنا ، لا مشكلة ، حسنا. وإذا كان لدي أي حاجة جديدة ، أعني ، سأتابع أيضا مع قسم الائتمان وأحسب لك إذا كان هناك أي حاجة أليس كذلك؟</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>67.32</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>قسم الائتمان</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>أنت هنا.</t>
+          <t>سنجعلك 23 مع المرة الأولى التي ستدفع فيها وفي المرة الثانية ستدفع طالما أنك تريد دفعها مرتين طالما تريد دفعها مرتين؟ حسنا ، لا مشكلة ، حسنا. وإذا كان لدي أي حاجة جديدة ، أعني ، سأتابع أيضا مع قسم الائتمان وأحسب لك إذا كان هناك أي حاجة أليس كذلك؟</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>حاجة أخرى</t>
+          <t>حاجة جديدة</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>مختلط</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>هل هذا صحيح يا سيدي؟ منجز. الاشتراكات في جميع الكراتين التي تم إلغاؤها ، لذلك ليس هناك حاجة أخرى لك. شكرا لك أوي. أي أسئلة أخرى.</t>
+          <t>سنجعلك 23 مع المرة الأولى التي ستدفع فيها وفي المرة الثانية ستدفع طالما أنك تريد دفعها مرتين طالما تريد دفعها مرتين؟ حسنا ، لا مشكلة ، حسنا. وإذا كان لدي أي حاجة جديدة ، أعني ، سأتابع أيضا مع قسم الائتمان وأحسب لك إذا كان هناك أي حاجة أليس كذلك؟</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>أسئلة أخرى</t>
+          <t>مشكلة</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>مختلط</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>هل هذا صحيح يا سيدي؟ منجز. الاشتراكات في جميع الكراتين التي تم إلغاؤها ، لذلك ليس هناك حاجة أخرى لك. شكرا لك أوي. أي أسئلة أخرى.</t>
+          <t>سنجعلك 23 مع المرة الأولى التي ستدفع فيها وفي المرة الثانية ستدفع طالما أنك تريد دفعها مرتين طالما تريد دفعها مرتين؟ حسنا ، لا مشكلة ، حسنا. وإذا كان لدي أي حاجة جديدة ، أعني ، سأتابع أيضا مع قسم الائتمان وأحسب لك إذا كان هناك أي حاجة أليس كذلك؟</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>95.15</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>منجز</t>
+          <t>استفسار آخر</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>مختلط</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>هل هذا صحيح يا سيدي؟ منجز. الاشتراكات في جميع الكراتين التي تم إلغاؤها ، لذلك ليس هناك حاجة أخرى لك. شكرا لك أوي. أي أسئلة أخرى.</t>
+          <t>أتمنى أن أفعل ما تريد ، بالطبع ، سيدي ، إذا كان لديك أي استفسار آخر يمكنني مساعدتك فيه؟ شكرا لك حبيبتي. ميرسي في خدمتك يا سيدي. نحن سعداء لخدمتك في الاتصالات. رافقتك السلامة.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>95.15</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>الاشتراكات</t>
+          <t>دورة</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>مختلط</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>هل هذا صحيح يا سيدي؟ منجز. الاشتراكات في جميع الكراتين التي تم إلغاؤها ، لذلك ليس هناك حاجة أخرى لك. شكرا لك أوي. أي أسئلة أخرى.</t>
+          <t>أتمنى أن أفعل ما تريد ، بالطبع ، سيدي ، إذا كان لديك أي استفسار آخر يمكنني مساعدتك فيه؟ شكرا لك حبيبتي. ميرسي في خدمتك يا سيدي. نحن سعداء لخدمتك في الاتصالات. رافقتك السلامة.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>95.15</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>كرتون</t>
+          <t>مرسي</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>مختلط</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>هل هذا صحيح يا سيدي؟ منجز. الاشتراكات في جميع الكراتين التي تم إلغاؤها ، لذلك ليس هناك حاجة أخرى لك. شكرا لك أوي. أي أسئلة أخرى.</t>
+          <t>أتمنى أن أفعل ما تريد ، بالطبع ، سيدي ، إذا كان لديك أي استفسار آخر يمكنني مساعدتك فيه؟ شكرا لك حبيبتي. ميرسي في خدمتك يا سيدي. نحن سعداء لخدمتك في الاتصالات. رافقتك السلامة.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>95.15</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>دعوة مشرفة</t>
+          <t>خدمة</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>لقد شرفتني بدعوتك الكريمة.</t>
+          <t>أتمنى أن أفعل ما تريد ، بالطبع ، سيدي ، إذا كان لديك أي استفسار آخر يمكنني مساعدتك فيه؟ شكرا لك حبيبتي. ميرسي في خدمتك يا سيدي. نحن سعداء لخدمتك في الاتصالات. رافقتك السلامة.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1584,15 +1584,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 12</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>95.60</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>سيد</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>موجب</t>
@@ -1600,7 +1604,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>شكرا لك أوي. رافقتك السلامة.</t>
+          <t>أتمنى أن أفعل ما تريد ، بالطبع ، سيدي ، إذا كان لديك أي استفسار آخر يمكنني مساعدتك فيه؟ شكرا لك حبيبتي. ميرسي في خدمتك يا سيدي. نحن سعداء لخدمتك في الاتصالات. رافقتك السلامة.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1612,17 +1616,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158308797</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>95.15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>مساء الخير</t>
+          <t>الاتصالات</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1632,7 +1636,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>محمد معك. مساء الخير. عمت مساءً سيدي. هل لي أن أكرم بالاسم؟</t>
+          <t>أتمنى أن أفعل ما تريد ، بالطبع ، سيدي ، إذا كان لديك أي استفسار آخر يمكنني مساعدتك فيه؟ شكرا لك حبيبتي. ميرسي في خدمتك يا سيدي. نحن سعداء لخدمتك في الاتصالات. رافقتك السلامة.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1644,17 +1648,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>محمد</t>
+          <t>صباح الخير رحمة</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1664,7 +1668,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>محمد معك. مساء الخير. عمت مساءً سيدي. هل لي أن أكرم بالاسم؟</t>
+          <t>صباح الخير. الرحمة تتواصل معكم، صباح الخير رحمة. صباح الخير سيد محمد، ما الجديد معك؟ الحمد لله الحمد لله ارجو الاستفسار عن نفس العدد.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1676,17 +1680,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>اسم</t>
+          <t>جهات اتصال الرحمة</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1696,7 +1700,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>محمد معك. مساء الخير. عمت مساءً سيدي. هل لي أن أكرم بالاسم؟</t>
+          <t>صباح الخير. الرحمة تتواصل معكم، صباح الخير رحمة. صباح الخير سيد محمد، ما الجديد معك؟ الحمد لله الحمد لله ارجو الاستفسار عن نفس العدد.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1708,113 +1712,113 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>السيد هاجر</t>
+          <t>السيد محمد</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>أهلا وسهلا بك يا سيد هاجر على نفس الرقم ورقم آخر؟ آه ، ليس نفس الرقم تحت قيادتك ، سيد راجيل ، تفضل.</t>
+          <t>صباح الخير. الرحمة تتواصل معكم، صباح الخير رحمة. صباح الخير سيد محمد، ما الجديد معك؟ الحمد لله الحمد لله ارجو الاستفسار عن نفس العدد.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>السيد راجيل</t>
+          <t>نفس الرقم</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>أهلا وسهلا بك يا سيد هاجر على نفس الرقم ورقم آخر؟ آه ، ليس نفس الرقم تحت قيادتك ، سيد راجيل ، تفضل.</t>
+          <t>صباح الخير. الرحمة تتواصل معكم، صباح الخير رحمة. صباح الخير سيد محمد، ما الجديد معك؟ الحمد لله الحمد لله ارجو الاستفسار عن نفس العدد.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>نفس الرقم</t>
+          <t>الله</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>أهلا وسهلا بك يا سيد هاجر على نفس الرقم ورقم آخر؟ آه ، ليس نفس الرقم تحت قيادتك ، سيد راجيل ، تفضل.</t>
+          <t>صباح الخير. الرحمة تتواصل معكم، صباح الخير رحمة. صباح الخير سيد محمد، ما الجديد معك؟ الحمد لله الحمد لله ارجو الاستفسار عن نفس العدد.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>13.80</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>أمر</t>
+          <t>سطر</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1824,7 +1828,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>أهلا وسهلا بك يا سيد هاجر على نفس الرقم ورقم آخر؟ آه ، ليس نفس الرقم تحت قيادتك ، سيد راجيل ، تفضل.</t>
+          <t>هل هذا الخط أم ماذا؟</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1836,177 +1840,177 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>بروفيسور هاجر</t>
+          <t>محضر</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>عفوًا. ب، مرحبا بك يا أستاذة هاجر على نفس الرقم ورقم تاني ، اه ، ليس نفس الرقم تحت قيادتك ، أستاذ راجل ، تفضل.</t>
+          <t>دقائق على الإنترنت؟</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>البروفيسور راجل</t>
+          <t>إنترنت</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>عفوًا. ب، مرحبا بك يا أستاذة هاجر على نفس الرقم ورقم تاني ، اه ، ليس نفس الرقم تحت قيادتك ، أستاذ راجل ، تفضل.</t>
+          <t>دقائق على الإنترنت؟</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>20.87</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>نفس الرقم</t>
+          <t>الله</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>عفوًا. ب، مرحبا بك يا أستاذة هاجر على نفس الرقم ورقم تاني ، اه ، ليس نفس الرقم تحت قيادتك ، أستاذ راجل ، تفضل.</t>
+          <t>لا للأسف والله اذا كانت هناك عروض ستجلب لك رسالة معها.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>20.87</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>تاني</t>
+          <t>العروض</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>عفوًا. ب، مرحبا بك يا أستاذة هاجر على نفس الرقم ورقم تاني ، اه ، ليس نفس الرقم تحت قيادتك ، أستاذ راجل ، تفضل.</t>
+          <t>لا للأسف والله اذا كانت هناك عروض ستجلب لك رسالة معها.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>20.87</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>أمر</t>
+          <t>رسالة</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>عفوًا. ب، مرحبا بك يا أستاذة هاجر على نفس الرقم ورقم تاني ، اه ، ليس نفس الرقم تحت قيادتك ، أستاذ راجل ، تفضل.</t>
+          <t>لا للأسف والله اذا كانت هناك عروض ستجلب لك رسالة معها.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>25.55</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>استدعاء عامل الحزمة</t>
+          <t>إنترنت</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2016,7 +2020,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>أنا عامل حزمة مكالمات مع 45 وعامل حزم صافي مع 75 ، لذلك قمت بشحنها أو لم أكن أعرف كيفية تجديدها ، لذلك أردت منك تجديدها.</t>
+          <t>هل الإنترنت معك؟</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2028,17 +2032,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>عامل حزمة الشبكة</t>
+          <t>حاجة خالصة</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2048,7 +2052,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>أنا عامل حزمة مكالمات مع 45 وعامل حزم صافي مع 75 ، لذلك قمت بشحنها أو لم أكن أعرف كيفية تجديدها ، لذلك أردت منك تجديدها.</t>
+          <t>حسنا ، لست بحاجة ، أنا أستفسر عن أنني أخفض حاجة مثل المشارب تبيعها ، أعني ، لا توجد حاجة خالصة ، ماذا يعني السبب؟</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2060,17 +2064,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>25.31</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>يا فندم</t>
+          <t>المشارب</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2080,7 +2084,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>لا ، بأمرك على الفور ، يا فندم ، أؤكد لك.</t>
+          <t>حسنا ، لست بحاجة ، أنا أستفسر عن أنني أخفض حاجة مثل المشارب تبيعها ، أعني ، لا توجد حاجة خالصة ، ماذا يعني السبب؟</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2092,17 +2096,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>25.31</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>أمر</t>
+          <t>سبب</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2112,7 +2116,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>لا ، بأمرك على الفور ، يا فندم ، أؤكد لك.</t>
+          <t>حسنا ، لست بحاجة ، أنا أستفسر عن أنني أخفض حاجة مثل المشارب تبيعها ، أعني ، لا توجد حاجة خالصة ، ماذا يعني السبب؟</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2124,15 +2128,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>28.35</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>39.32</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>سبب</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>محايد</t>
@@ -2140,7 +2148,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>حسنًا.</t>
+          <t>لا ، لا يوجد سبب ، ولكن إذا كان ذلك ممكنا ، لكنك ستركز على الأسلحة التي ننظر إليها ، لأن هذه الأسلحة ستبقى فيها إذا كان هناك عرض أو حاجة يمكنك الاستفادة منها.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2152,17 +2160,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>35.11</t>
+          <t>39.32</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>تَمْثِيلِيَّة</t>
+          <t>البنادق</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2172,7 +2180,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>نعم ، لقد صنعت قصة 45 حسنا؟</t>
+          <t>لا ، لا يوجد سبب ، ولكن إذا كان ذلك ممكنا ، لكنك ستركز على الأسلحة التي ننظر إليها ، لأن هذه الأسلحة ستبقى فيها إذا كان هناك عرض أو حاجة يمكنك الاستفادة منها.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2184,17 +2192,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>40.16</t>
+          <t>39.32</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>حزمة الإنترنت X75</t>
+          <t>عرض</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2204,7 +2212,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>وحزمة الإنترنت X75</t>
+          <t>لا ، لا يوجد سبب ، ولكن إذا كان ذلك ممكنا ، لكنك ستركز على الأسلحة التي ننظر إليها ، لأن هذه الأسلحة ستبقى فيها إذا كان هناك عرض أو حاجة يمكنك الاستفادة منها.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2216,17 +2224,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>40.16</t>
+          <t>39.32</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>حزمة الإنترنت X75</t>
+          <t>احتياج</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2236,7 +2244,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>وحزمة الإنترنت X75.</t>
+          <t>لا ، لا يوجد سبب ، ولكن إذا كان ذلك ممكنا ، لكنك ستركز على الأسلحة التي ننظر إليها ، لأن هذه الأسلحة ستبقى فيها إذا كان هناك عرض أو حاجة يمكنك الاستفادة منها.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2248,12 +2256,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>42.92</t>
+          <t>51.31</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2264,7 +2272,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>هل قاموا بتجديده؟</t>
+          <t>حسنًا.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2276,17 +2284,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>46.60</t>
+          <t>54.22</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>توازن</t>
+          <t>أمر</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2296,7 +2304,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>إنه الآن رصيد 25 رطلا. لذلك سوف نتأكد من أنك جيد أم لا؟</t>
+          <t>تحت أمرك ، هل يمكنني مساعدتك مرة أخرى؟</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2308,17 +2316,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>46.60</t>
+          <t>57.57</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>جنيه 25</t>
+          <t>هدايت نت</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2328,7 +2336,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>إنه الآن رصيد 25 رطلا. لذلك سوف نتأكد من أنك جيد أم لا؟</t>
+          <t>قالوا في شبكة هدايت ولا داعي لذلك.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2340,17 +2348,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>51.32</t>
+          <t>57.57</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>التنين المخلص</t>
+          <t>احتياج</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2360,7 +2368,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>كيف؟ رصيدي 25؟ هل أقوم بتحويل رصيد مخلص التنين؟</t>
+          <t>قالوا في شبكة هدايت ولا داعي لذلك.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2372,17 +2380,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>51.32</t>
+          <t>62.76</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>توازن</t>
+          <t>احتياج</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2392,7 +2400,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>كيف؟ رصيدي 25؟ هل أقوم بتحويل رصيد مخلص التنين؟</t>
+          <t>قلنا فيه وليس هناك حاجة.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2404,17 +2412,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>54.48</t>
+          <t>65.87</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>جاد</t>
+          <t>الله</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2424,7 +2432,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>جاد 160 اه.</t>
+          <t>إذا كان الله سيأتي إلى وجودك ، فلا تقلق بشأن ماذا.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2436,17 +2444,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>56.40</t>
+          <t>65.87</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>باقة المكالمات</t>
+          <t>حضور</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2456,7 +2464,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>أوه ، التنين ، جدد التنين ، جدد يا سيدي. الان احتاج الباقة لشراء المكالمات اريدها ان تبقى للمكالمات بس يعني اريد ان يبقى الرصيد كله المكالمات ولكن لا اريد عندما افتح البيانات يأخذون من الدقائق لشراء باقة المكالمات؟</t>
+          <t>إذا كان الله سيأتي إلى وجودك ، فلا تقلق بشأن ماذا.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2468,59 +2476,55 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>56.40</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>تنين</t>
-        </is>
-      </c>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>أوه ، التنين ، جدد التنين ، جدد يا سيدي. الان احتاج الباقة لشراء المكالمات اريدها ان تبقى للمكالمات بس يعني اريد ان يبقى الرصيد كله المكالمات ولكن لا اريد عندما افتح البيانات يأخذون من الدقائق لشراء باقة المكالمات؟</t>
+          <t>لم ينته الأمر ، لا يوجد شيء فيه.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>56.40</t>
+          <t>72.92</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>المكالمات</t>
+          <t>استفسار آخر</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>مختلط</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>أوه ، التنين ، جدد التنين ، جدد يا سيدي. الان احتاج الباقة لشراء المكالمات اريدها ان تبقى للمكالمات بس يعني اريد ان يبقى الرصيد كله المكالمات ولكن لا اريد عندما افتح البيانات يأخذون من الدقائق لشراء باقة المكالمات؟</t>
+          <t>شكرا. عذرًا. سأحاول أيضا المتابعة معك ، حتى لو كانت هناك حاجة ، سأتحدث معك مرة أخرى. شكرا لك ، اعذرني على أي شيء تحت قيادتك. أي عفو آخر للتحقيق.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2532,27 +2536,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>56.40</t>
+          <t>72.92</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>توازن</t>
+          <t>احتياج</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>مختلط</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>أوه ، التنين ، جدد التنين ، جدد يا سيدي. الان احتاج الباقة لشراء المكالمات اريدها ان تبقى للمكالمات بس يعني اريد ان يبقى الرصيد كله المكالمات ولكن لا اريد عندما افتح البيانات يأخذون من الدقائق لشراء باقة المكالمات؟</t>
+          <t>شكرا. عذرًا. سأحاول أيضا المتابعة معك ، حتى لو كانت هناك حاجة ، سأتحدث معك مرة أخرى. شكرا لك ، اعذرني على أي شيء تحت قيادتك. أي عفو آخر للتحقيق.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2564,27 +2568,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>158836735</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>56.40</t>
+          <t>72.92</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>بيانات</t>
+          <t>أمر</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>مختلط</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>أوه ، التنين ، جدد التنين ، جدد يا سيدي. الان احتاج الباقة لشراء المكالمات اريدها ان تبقى للمكالمات بس يعني اريد ان يبقى الرصيد كله المكالمات ولكن لا اريد عندما افتح البيانات يأخذون من الدقائق لشراء باقة المكالمات؟</t>
+          <t>شكرا. عذرًا. سأحاول أيضا المتابعة معك ، حتى لو كانت هناك حاجة ، سأتحدث معك مرة أخرى. شكرا لك ، اعذرني على أي شيء تحت قيادتك. أي عفو آخر للتحقيق.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2596,17 +2600,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>56.40</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>محضر</t>
+          <t>جهات اتصال هيدي</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2616,7 +2620,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>أوه ، التنين ، جدد التنين ، جدد يا سيدي. الان احتاج الباقة لشراء المكالمات اريدها ان تبقى للمكالمات بس يعني اريد ان يبقى الرصيد كله المكالمات ولكن لا اريد عندما افتح البيانات يأخذون من الدقائق لشراء باقة المكالمات؟</t>
+          <t>صباح الخير ، هيدي تتواصل معك.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2628,145 +2632,145 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>72.03</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>باقة حكايا 45</t>
+          <t>معايا معاكي حنا</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>تاني على باقة حكايا 45 المكالمات فقط؟</t>
+          <t>صباح الخير يا سيدي الآنسة هناء، معايا معاكي حنا. مرحبا بك يا سيدي ، هل يمكنني مساعدتك على نفس الرقم أو على رقم آخر؟</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>72.03</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>تاني</t>
+          <t>الآنسة هناء</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>تاني على باقة حكايا 45 المكالمات فقط؟</t>
+          <t>صباح الخير يا سيدي الآنسة هناء، معايا معاكي حنا. مرحبا بك يا سيدي ، هل يمكنني مساعدتك على نفس الرقم أو على رقم آخر؟</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>72.03</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>باقة حكايا 45</t>
+          <t>نفس الرقم</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>تاني على حزمة حكايا 45 يبقى مجرد مكالمات.</t>
+          <t>صباح الخير يا سيدي الآنسة هناء، معايا معاكي حنا. مرحبا بك يا سيدي ، هل يمكنني مساعدتك على نفس الرقم أو على رقم آخر؟</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>72.03</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>تاني</t>
+          <t>الصباح</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>تاني على حزمة حكايا 45 يبقى مجرد مكالمات.</t>
+          <t>صباح الخير يا سيدي الآنسة هناء، معايا معاكي حنا. مرحبا بك يا سيدي ، هل يمكنني مساعدتك على نفس الرقم أو على رقم آخر؟</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>72.03</t>
+          <t>13.68</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>المكالمات</t>
+          <t>رقمين</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2776,7 +2780,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>تاني على حزمة حكايا 45 يبقى مجرد مكالمات.</t>
+          <t>إنه رقمان تحت بعضهما البعض. الشيء المهم هو أنني أريد أن أؤدي، يقول أنه لا يمكنك الاتصال كوسيلة لحدود الائتمان.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2788,17 +2792,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>13.68</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>المكالمات</t>
+          <t>شيء مهم</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2808,7 +2812,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>نعم ، المكالمات ، ولكن حتى لو فتحت بيانات الإنترنت ولم يتم حجب الإنترنت ، فهل يمكنك القيام بذلك من أجلي؟</t>
+          <t>إنه رقمان تحت بعضهما البعض. الشيء المهم هو أنني أريد أن أؤدي، يقول أنه لا يمكنك الاتصال كوسيلة لحدود الائتمان.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2820,17 +2824,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>13.68</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>بيانات</t>
+          <t>حدود الائتمان</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2840,7 +2844,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>نعم ، المكالمات ، ولكن حتى لو فتحت بيانات الإنترنت ولم يتم حجب الإنترنت ، فهل يمكنك القيام بذلك من أجلي؟</t>
+          <t>إنه رقمان تحت بعضهما البعض. الشيء المهم هو أنني أريد أن أؤدي، يقول أنه لا يمكنك الاتصال كوسيلة لحدود الائتمان.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2852,17 +2856,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>13.68</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>إنترنت</t>
+          <t>يعني</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2872,7 +2876,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>نعم ، المكالمات ، ولكن حتى لو فتحت بيانات الإنترنت ولم يتم حجب الإنترنت ، فهل يمكنك القيام بذلك من أجلي؟</t>
+          <t>إنه رقمان تحت بعضهما البعض. الشيء المهم هو أنني أريد أن أؤدي، يقول أنه لا يمكنك الاتصال كوسيلة لحدود الائتمان.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2884,17 +2888,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>20.28</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>المكالمات</t>
+          <t>الحد الائتماني</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2904,7 +2908,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>اه المكالمات. ولكن حتى إذا فتحت البيانات على الإنترنت ولم يكن الإنترنت غائما ، يمكنك القيام بذلك نيابة عني.</t>
+          <t>إذا قلت لك ، لقد وصلت إلى حد الائتمان ، أوه لم أفهم لحظة معي.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2916,17 +2920,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>20.28</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>بيانات</t>
+          <t>وقت</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2936,7 +2940,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>اه المكالمات. ولكن حتى إذا فتحت البيانات على الإنترنت ولم يكن الإنترنت غائما ، يمكنك القيام بذلك نيابة عني.</t>
+          <t>إذا قلت لك ، لقد وصلت إلى حد الائتمان ، أوه لم أفهم لحظة معي.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2948,19 +2952,15 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>74.31</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>إنترنت</t>
-        </is>
-      </c>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
           <t>محايد</t>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>اه المكالمات. ولكن حتى إذا فتحت البيانات على الإنترنت ولم يكن الإنترنت غائما ، يمكنك القيام بذلك نيابة عني.</t>
+          <t>حسنًا.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2980,19 +2980,15 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>81.99</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>المكالمات</t>
-        </is>
-      </c>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
           <t>محايد</t>
@@ -3000,7 +2996,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>حسنا ، لقد تركته لك فقط المكالمات ، وإذا كنت تريد تغييره في أي وقت ، فإن الرمز هو 808 نجمة.</t>
+          <t>ماذا قلت يا سيدي؟</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3012,19 +3008,15 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>81.99</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>الوقت</t>
-        </is>
-      </c>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
           <t>محايد</t>
@@ -3032,7 +3024,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>حسنا ، لقد تركته لك فقط المكالمات ، وإذا كنت تريد تغييره في أي وقت ، فإن الرمز هو 808 نجمة.</t>
+          <t>لا أعرف؟ أعني ، كم كنت أتحدث؟</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3044,17 +3036,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>81.99</t>
+          <t>36.99</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>رمز</t>
+          <t>أرقام عادية</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3064,7 +3056,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>حسنا ، لقد تركته لك فقط المكالمات ، وإذا كنت تريد تغييره في أي وقت ، فإن الرمز هو 808 نجمة.</t>
+          <t>يعني انك تتحدث الى ارقام عادية يعني اتصالات او اي شبكة اخرى؟ لا توجد أرقام مختصرة؟</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3076,17 +3068,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>81.99</t>
+          <t>36.99</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>808 نجمة</t>
+          <t>شبكة أخرى</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3096,7 +3088,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>حسنا ، لقد تركته لك فقط المكالمات ، وإذا كنت تريد تغييره في أي وقت ، فإن الرمز هو 808 نجمة.</t>
+          <t>يعني انك تتحدث الى ارقام عادية يعني اتصالات او اي شبكة اخرى؟ لا توجد أرقام مختصرة؟</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3108,241 +3100,233 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>88.03</t>
+          <t>36.99</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>استفسار آخر</t>
+          <t>أرقام مختصرة</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>إنه اكتمل. شكرا. العفو تحت أمرك. أي استفسار آخر. لا. شكرا لك عفوا تحت أمرك يا فندم سعيد الله يحفظك الله ينقذك. رافقتك السلامة.</t>
+          <t>يعني انك تتحدث الى ارقام عادية يعني اتصالات او اي شبكة اخرى؟ لا توجد أرقام مختصرة؟</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>88.03</t>
+          <t>36.99</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>يا فندم</t>
+          <t>الاتصالات السلكيه</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>إنه اكتمل. شكرا. العفو تحت أمرك. أي استفسار آخر. لا. شكرا لك عفوا تحت أمرك يا فندم سعيد الله يحفظك الله ينقذك. رافقتك السلامة.</t>
+          <t>يعني انك تتحدث الى ارقام عادية يعني اتصالات او اي شبكة اخرى؟ لا توجد أرقام مختصرة؟</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>88.03</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>عفو</t>
-        </is>
-      </c>
+          <t>44.32</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>إنه اكتمل. شكرا. العفو تحت أمرك. أي استفسار آخر. لا. شكرا لك عفوا تحت أمرك يا فندم سعيد الله يحفظك الله ينقذك. رافقتك السلامة.</t>
+          <t>حسنًا؟</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>88.03</t>
+          <t>50.07</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>أمر</t>
+          <t>وقت</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>إنه اكتمل. شكرا. العفو تحت أمرك. أي استفسار آخر. لا. شكرا لك عفوا تحت أمرك يا فندم سعيد الله يحفظك الله ينقذك. رافقتك السلامة.</t>
+          <t>لحظة وحدة.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>88.03</t>
+          <t>50.07</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>لا.</t>
+          <t>وحدة</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>إنه اكتمل. شكرا. العفو تحت أمرك. أي استفسار آخر. لا. شكرا لك عفوا تحت أمرك يا فندم سعيد الله يحفظك الله ينقذك. رافقتك السلامة.</t>
+          <t>لحظة وحدة.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 13</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>88.03</t>
+          <t>54.60</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>الله</t>
+          <t>مشكلة</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>إنه اكتمل. شكرا. العفو تحت أمرك. أي استفسار آخر. لا. شكرا لك عفوا تحت أمرك يا فندم سعيد الله يحفظك الله ينقذك. رافقتك السلامة.</t>
+          <t>هذه المشكلة معك ، منذ متى الآن؟</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>أستاذ محمد</t>
-        </is>
-      </c>
+          <t>61.67</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>مساء الخير يا اتصالات محمد معك، مساء الخير يا أستاذ محمد، عامل إيه؟ الحمد لله يا سيدي كيف حالك؟</t>
+          <t>حسنًا؟</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>69.58</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>جهات الاتصال</t>
+          <t>خطوة تنشيطية</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3352,7 +3336,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>مساء الخير يا اتصالات محمد معك، مساء الخير يا أستاذ محمد، عامل إيه؟ الحمد لله يا سيدي كيف حالك؟</t>
+          <t>أنا واضح لي أنك معي لدقائق. لا مشكلة ، حسنا. سأعمل فقط من أجلك كخطوة تنشيطية من خلالي وأعود للتحدث معك مرة أخرى. فقط تأكد من أن الخدمة عملت معك أم أن هناك مشكلة؟</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3364,17 +3348,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>69.58</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>عامل</t>
+          <t>محضر</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3384,7 +3368,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>مساء الخير يا اتصالات محمد معك، مساء الخير يا أستاذ محمد، عامل إيه؟ الحمد لله يا سيدي كيف حالك؟</t>
+          <t>أنا واضح لي أنك معي لدقائق. لا مشكلة ، حسنا. سأعمل فقط من أجلك كخطوة تنشيطية من خلالي وأعود للتحدث معك مرة أخرى. فقط تأكد من أن الخدمة عملت معك أم أن هناك مشكلة؟</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3396,17 +3380,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>69.58</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>مدح</t>
+          <t>مشكلة</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3416,7 +3400,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>مساء الخير يا اتصالات محمد معك، مساء الخير يا أستاذ محمد، عامل إيه؟ الحمد لله يا سيدي كيف حالك؟</t>
+          <t>أنا واضح لي أنك معي لدقائق. لا مشكلة ، حسنا. سأعمل فقط من أجلك كخطوة تنشيطية من خلالي وأعود للتحدث معك مرة أخرى. فقط تأكد من أن الخدمة عملت معك أم أن هناك مشكلة؟</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3428,17 +3412,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>69.58</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>الله</t>
+          <t>خدمة</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3448,7 +3432,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>مساء الخير يا اتصالات محمد معك، مساء الخير يا أستاذ محمد، عامل إيه؟ الحمد لله يا سيدي كيف حالك؟</t>
+          <t>أنا واضح لي أنك معي لدقائق. لا مشكلة ، حسنا. سأعمل فقط من أجلك كخطوة تنشيطية من خلالي وأعود للتحدث معك مرة أخرى. فقط تأكد من أن الخدمة عملت معك أم أن هناك مشكلة؟</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3460,177 +3444,177 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>82.51</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>السيد أحمد</t>
+          <t>وضع الطيران</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>سيد أحمد؟ يا رب، كن جيدا يا رب.</t>
+          <t>لكنني سأعذرك يا سيدي ، فقط خذ وضع الطيران بعد إنهاء المكالمة لمدة دقيقة ، حسنا؟ وسأتحدث معك مرة أخرى بعد أن أعمل لديك خطوة تفعيلها من خلالي.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>82.51</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>رب</t>
+          <t>دعا</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>سيد أحمد؟ يا رب، كن جيدا يا رب.</t>
+          <t>لكنني سأعذرك يا سيدي ، فقط خذ وضع الطيران بعد إنهاء المكالمة لمدة دقيقة ، حسنا؟ وسأتحدث معك مرة أخرى بعد أن أعمل لديك خطوة تفعيلها من خلالي.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>82.51</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>نفس الرقم</t>
+          <t>دقيقة</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>شكرا لك على نفس الرقم آمل يا سيد حمدي ، أوه أنا نفس الرقم ، أقول لك يا باشا ، كنت عارضة أزياء طلبت الفاتورة في 30.</t>
+          <t>لكنني سأعذرك يا سيدي ، فقط خذ وضع الطيران بعد إنهاء المكالمة لمدة دقيقة ، حسنا؟ وسأتحدث معك مرة أخرى بعد أن أعمل لديك خطوة تفعيلها من خلالي.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>82.51</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>السيد حمدي</t>
+          <t>درج</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>شكرا لك على نفس الرقم آمل يا سيد حمدي ، أوه أنا نفس الرقم ، أقول لك يا باشا ، كنت عارضة أزياء طلبت الفاتورة في 30.</t>
+          <t>لكنني سأعذرك يا سيدي ، فقط خذ وضع الطيران بعد إنهاء المكالمة لمدة دقيقة ، حسنا؟ وسأتحدث معك مرة أخرى بعد أن أعمل لديك خطوة تفعيلها من خلالي.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>باشا</t>
+          <t>أسئلة أخرى</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>شكرا لك على نفس الرقم آمل يا سيد حمدي ، أوه أنا نفس الرقم ، أقول لك يا باشا ، كنت عارضة أزياء طلبت الفاتورة في 30.</t>
+          <t>أود أن أوضح لكم أي أسئلة أخرى.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>98.00</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>نموذج</t>
+          <t>سعادة أبو خالد</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3640,7 +3624,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>شكرا لك على نفس الرقم آمل يا سيد حمدي ، أوه أنا نفس الرقم ، أقول لك يا باشا ، كنت عارضة أزياء طلبت الفاتورة في 30.</t>
+          <t>لا يا حبيبتي ، شكرا لك ، لقد كرمتني يا فينديم. فخامة أبو خالد، من أنت؟ الاتصالات؟ أتمنى لك نهارا سعيدا ، وداعا ، وداعا.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3652,17 +3636,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>98.00</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>فاتورة</t>
+          <t>طاب يومك</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3672,7 +3656,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>شكرا لك على نفس الرقم آمل يا سيد حمدي ، أوه أنا نفس الرقم ، أقول لك يا باشا ، كنت عارضة أزياء طلبت الفاتورة في 30.</t>
+          <t>لا يا حبيبتي ، شكرا لك ، لقد كرمتني يا فينديم. فخامة أبو خالد، من أنت؟ الاتصالات؟ أتمنى لك نهارا سعيدا ، وداعا ، وداعا.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3684,17 +3668,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>98.00</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>الاتصالات</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3704,7 +3688,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>شكرا لك على نفس الرقم آمل يا سيد حمدي ، أوه أنا نفس الرقم ، أقول لك يا باشا ، كنت عارضة أزياء طلبت الفاتورة في 30.</t>
+          <t>لا يا حبيبتي ، شكرا لك ، لقد كرمتني يا فينديم. فخامة أبو خالد، من أنت؟ الاتصالات؟ أتمنى لك نهارا سعيدا ، وداعا ، وداعا.</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3716,47 +3700,51 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>21.48</t>
+          <t>98.00</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>السيد حمدي</t>
+          <t>وداعًا</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>حسنا يا سيد حمدي؟</t>
+          <t>لا يا حبيبتي ، شكرا لك ، لقد كرمتني يا فينديم. فخامة أبو خالد، من أنت؟ الاتصالات؟ أتمنى لك نهارا سعيدا ، وداعا ، وداعا.</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>159385897</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>23.88</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
+          <t>106.97</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>الو</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>محايد</t>
@@ -3764,7 +3752,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>قل لي في ذلك.</t>
+          <t>الو.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3776,235 +3764,243 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>28.48</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>السيد وليد معاية</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>وا.</t>
+          <t>صباح الخير. اتصالات سلمى معك. صباح الخير سيدي. أهلا بك سيد وليد معايعة. مرحبا بيكي سيد وليد ، من فضلك اقتبس منك على نفس الرقم ، أنت تتصل بي منه وليس أي رقم آخر ، نفس الرقم. بالطبع ، كيف يمكنني إرضائك؟</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>30.79</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>فاتورة</t>
+          <t>مرحبا بيكي</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>بسبب الفاتورة؟</t>
+          <t>صباح الخير. اتصالات سلمى معك. صباح الخير سيدي. أهلا بك سيد وليد معايعة. مرحبا بيكي سيد وليد ، من فضلك اقتبس منك على نفس الرقم ، أنت تتصل بي منه وليس أي رقم آخر ، نفس الرقم. بالطبع ، كيف يمكنني إرضائك؟</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>34.52</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ابعاد</t>
+          <t>نفس الرقم</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ابعاد.</t>
+          <t>صباح الخير. اتصالات سلمى معك. صباح الخير سيدي. أهلا بك سيد وليد معايعة. مرحبا بيكي سيد وليد ، من فضلك اقتبس منك على نفس الرقم ، أنت تتصل بي منه وليس أي رقم آخر ، نفس الرقم. بالطبع ، كيف يمكنني إرضائك؟</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>36.84</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>طلب</t>
+          <t>رقم آخر</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>إذا تم قبول طلبك، فقم بتعيين الفاتورة بنجاح.</t>
+          <t>صباح الخير. اتصالات سلمى معك. صباح الخير سيدي. أهلا بك سيد وليد معايعة. مرحبا بيكي سيد وليد ، من فضلك اقتبس منك على نفس الرقم ، أنت تتصل بي منه وليس أي رقم آخر ، نفس الرقم. بالطبع ، كيف يمكنني إرضائك؟</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>36.84</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>فاتورة</t>
+          <t>سلمي</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>إذا تم قبول طلبك، فقم بتعيين الفاتورة بنجاح.</t>
+          <t>صباح الخير. اتصالات سلمى معك. صباح الخير سيدي. أهلا بك سيد وليد معايعة. مرحبا بيكي سيد وليد ، من فضلك اقتبس منك على نفس الرقم ، أنت تتصل بي منه وليس أي رقم آخر ، نفس الرقم. بالطبع ، كيف يمكنني إرضائك؟</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>39.84</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>السيد حمدي</t>
+          <t>جهات الاتصال</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>حسنا، سيد حمدي بالضبط.</t>
+          <t>صباح الخير. اتصالات سلمى معك. صباح الخير سيدي. أهلا بك سيد وليد معايعة. مرحبا بيكي سيد وليد ، من فضلك اقتبس منك على نفس الرقم ، أنت تتصل بي منه وليس أي رقم آخر ، نفس الرقم. بالطبع ، كيف يمكنني إرضائك؟</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>39.84</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>السيد حمدي</t>
+          <t>الصباح</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>حسنا، سيد حمدي بالضبط.</t>
+          <t>صباح الخير. اتصالات سلمى معك. صباح الخير سيدي. أهلا بك سيد وليد معايعة. مرحبا بيكي سيد وليد ، من فضلك اقتبس منك على نفس الرقم ، أنت تتصل بي منه وليس أي رقم آخر ، نفس الرقم. بالطبع ، كيف يمكنني إرضائك؟</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>41.48</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>دكان</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>محايد</t>
@@ -4012,7 +4008,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>حسنا ، أريد أن أعرف ماذا يعني اليوم إذا كان 30.</t>
+          <t>دكان؟</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4024,12 +4020,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>49.57</t>
+          <t>24.12</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4040,7 +4036,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>حسنًا.</t>
+          <t>حسنًا؟</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4052,147 +4048,143 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>52.08</t>
+          <t>26.60</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>تأجيل مشروع قانون الساحرة</t>
+          <t>خطأ</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>30 بالضبط ، قداستك ، شرفك ، كنت عاملا في طلب تأجيل مشروع قانون الساحرة. اه في احسن الاحوال. هل هو حقا ، سيدي ، هل الطلب متفق عليه ، حسنا؟ يجب أن يرد عليه اليوم ، سيرويها اليوم. تمت الموافقة عليه ، أليس كذلك؟ 30 خمسة إن شاء الله على 30 خمسة. حسنا يا سيدي ولا تقلق. هل هذه هي الطريقة التي أعمل بها معك ويمكنك أن تدفع لي في 30 نأمل في 30 من خمسة أو ما الذي ستحصل عليه؟</t>
+          <t>وفي كل مرة يقول أن هناك خطأ.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>52.08</t>
+          <t>33.11</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>القداسه</t>
+          <t>مشكلة</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>30 بالضبط ، قداستك ، شرفك ، كنت عاملا في طلب تأجيل مشروع قانون الساحرة. اه في احسن الاحوال. هل هو حقا ، سيدي ، هل الطلب متفق عليه ، حسنا؟ يجب أن يرد عليه اليوم ، سيرويها اليوم. تمت الموافقة عليه ، أليس كذلك؟ 30 خمسة إن شاء الله على 30 خمسة. حسنا يا سيدي ولا تقلق. هل هذه هي الطريقة التي أعمل بها معك ويمكنك أن تدفع لي في 30 نأمل في 30 من خمسة أو ما الذي ستحصل عليه؟</t>
+          <t>هناك مشكلة في استبدال النقاط ، أعني ، اه ، في ضوء ذلك ، اه ، يبدو أن لدي 8942 نقطة معك.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>52.08</t>
+          <t>33.11</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>شرف</t>
+          <t>النقاط</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>30 بالضبط ، قداستك ، شرفك ، كنت عاملا في طلب تأجيل مشروع قانون الساحرة. اه في احسن الاحوال. هل هو حقا ، سيدي ، هل الطلب متفق عليه ، حسنا؟ يجب أن يرد عليه اليوم ، سيرويها اليوم. تمت الموافقة عليه ، أليس كذلك؟ 30 خمسة إن شاء الله على 30 خمسة. حسنا يا سيدي ولا تقلق. هل هذه هي الطريقة التي أعمل بها معك ويمكنك أن تدفع لي في 30 نأمل في 30 من خمسة أو ما الذي ستحصل عليه؟</t>
+          <t>هناك مشكلة في استبدال النقاط ، أعني ، اه ، في ضوء ذلك ، اه ، يبدو أن لدي 8942 نقطة معك.</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>52.08</t>
+          <t>33.11</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>عامل</t>
+          <t>ضوء</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>30 بالضبط ، قداستك ، شرفك ، كنت عاملا في طلب تأجيل مشروع قانون الساحرة. اه في احسن الاحوال. هل هو حقا ، سيدي ، هل الطلب متفق عليه ، حسنا؟ يجب أن يرد عليه اليوم ، سيرويها اليوم. تمت الموافقة عليه ، أليس كذلك؟ 30 خمسة إن شاء الله على 30 خمسة. حسنا يا سيدي ولا تقلق. هل هذه هي الطريقة التي أعمل بها معك ويمكنك أن تدفع لي في 30 نأمل في 30 من خمسة أو ما الذي ستحصل عليه؟</t>
+          <t>هناك مشكلة في استبدال النقاط ، أعني ، اه ، في ضوء ذلك ، اه ، يبدو أن لدي 8942 نقطة معك.</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>52.08</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>طلب</t>
-        </is>
-      </c>
+          <t>42.60</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
           <t>موجب</t>
@@ -4200,7 +4192,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>30 بالضبط ، قداستك ، شرفك ، كنت عاملا في طلب تأجيل مشروع قانون الساحرة. اه في احسن الاحوال. هل هو حقا ، سيدي ، هل الطلب متفق عليه ، حسنا؟ يجب أن يرد عليه اليوم ، سيرويها اليوم. تمت الموافقة عليه ، أليس كذلك؟ 30 خمسة إن شاء الله على 30 خمسة. حسنا يا سيدي ولا تقلق. هل هذه هي الطريقة التي أعمل بها معك ويمكنك أن تدفع لي في 30 نأمل في 30 من خمسة أو ما الذي ستحصل عليه؟</t>
+          <t>اه في احسن الاحوال.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4212,49 +4204,49 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>52.08</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>مشاكل الصرف</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>30 بالضبط ، قداستك ، شرفك ، كنت عاملا في طلب تأجيل مشروع قانون الساحرة. اه في احسن الاحوال. هل هو حقا ، سيدي ، هل الطلب متفق عليه ، حسنا؟ يجب أن يرد عليه اليوم ، سيرويها اليوم. تمت الموافقة عليه ، أليس كذلك؟ 30 خمسة إن شاء الله على 30 خمسة. حسنا يا سيدي ولا تقلق. هل هذه هي الطريقة التي أعمل بها معك ويمكنك أن تدفع لي في 30 نأمل في 30 من خمسة أو ما الذي ستحصل عليه؟</t>
+          <t>حسنا ، هل نقاطي لا تحتوي على خطك أي مشاكل في الصرف؟ إذا كانت هناك مشكلة في الجهاز الذي لديهم ، فيمكنك السماح له بتجربة آلة أخرى في المكان ، أو تجربة مكان آخر ، فرع آخر ، ولكن النقاط على المحك ، ويتم الاستبدال بواسطة الجهاز في نفس المكان.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>81.79</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>السيد حمدي</t>
+          <t>نفس المكان</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4264,7 +4256,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>حسنًا؟ حسنا، أنا لست قلقا بشأن أي حاجة يا سيد حمدي. أي أسئلة أخرى تود أن تجعلني أضحك عليها.</t>
+          <t>حسنا ، هل نقاطي لا تحتوي على خطك أي مشاكل في الصرف؟ إذا كانت هناك مشكلة في الجهاز الذي لديهم ، فيمكنك السماح له بتجربة آلة أخرى في المكان ، أو تجربة مكان آخر ، فرع آخر ، ولكن النقاط على المحك ، ويتم الاستبدال بواسطة الجهاز في نفس المكان.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4276,17 +4268,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>81.79</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>أسئلة أخرى</t>
+          <t>النقاط</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4296,7 +4288,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>حسنًا؟ حسنا، أنا لست قلقا بشأن أي حاجة يا سيد حمدي. أي أسئلة أخرى تود أن تجعلني أضحك عليها.</t>
+          <t>حسنا ، هل نقاطي لا تحتوي على خطك أي مشاكل في الصرف؟ إذا كانت هناك مشكلة في الجهاز الذي لديهم ، فيمكنك السماح له بتجربة آلة أخرى في المكان ، أو تجربة مكان آخر ، فرع آخر ، ولكن النقاط على المحك ، ويتم الاستبدال بواسطة الجهاز في نفس المكان.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4308,17 +4300,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>81.79</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>احتياج</t>
+          <t>سطر</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4328,7 +4320,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>حسنًا؟ حسنا، أنا لست قلقا بشأن أي حاجة يا سيد حمدي. أي أسئلة أخرى تود أن تجعلني أضحك عليها.</t>
+          <t>حسنا ، هل نقاطي لا تحتوي على خطك أي مشاكل في الصرف؟ إذا كانت هناك مشكلة في الجهاز الذي لديهم ، فيمكنك السماح له بتجربة آلة أخرى في المكان ، أو تجربة مكان آخر ، فرع آخر ، ولكن النقاط على المحك ، ويتم الاستبدال بواسطة الجهاز في نفس المكان.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4340,209 +4332,205 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>استفسار آخر</t>
+          <t>آلة</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>سيدي ، أنا تحت أمرك ، والله. يعني عيني لك حفظك الله يا سعد المحترم والله ينقذك يا ندم تحت أمرك في أي استفسار آخر تود توضيحه لك.</t>
+          <t>حسنا ، هل نقاطي لا تحتوي على خطك أي مشاكل في الصرف؟ إذا كانت هناك مشكلة في الجهاز الذي لديهم ، فيمكنك السماح له بتجربة آلة أخرى في المكان ، أو تجربة مكان آخر ، فرع آخر ، ولكن النقاط على المحك ، ويتم الاستبدال بواسطة الجهاز في نفس المكان.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>سيد</t>
+          <t>فرع</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>سيدي ، أنا تحت أمرك ، والله. يعني عيني لك حفظك الله يا سعد المحترم والله ينقذك يا ندم تحت أمرك في أي استفسار آخر تود توضيحه لك.</t>
+          <t>حسنا ، هل نقاطي لا تحتوي على خطك أي مشاكل في الصرف؟ إذا كانت هناك مشكلة في الجهاز الذي لديهم ، فيمكنك السماح له بتجربة آلة أخرى في المكان ، أو تجربة مكان آخر ، فرع آخر ، ولكن النقاط على المحك ، ويتم الاستبدال بواسطة الجهاز في نفس المكان.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>أمر</t>
+          <t>تغيير</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>سيدي ، أنا تحت أمرك ، والله. يعني عيني لك حفظك الله يا سعد المحترم والله ينقذك يا ندم تحت أمرك في أي استفسار آخر تود توضيحه لك.</t>
+          <t>حسنا ، هل نقاطي لا تحتوي على خطك أي مشاكل في الصرف؟ إذا كانت هناك مشكلة في الجهاز الذي لديهم ، فيمكنك السماح له بتجربة آلة أخرى في المكان ، أو تجربة مكان آخر ، فرع آخر ، ولكن النقاط على المحك ، ويتم الاستبدال بواسطة الجهاز في نفس المكان.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>الله</t>
-        </is>
-      </c>
+          <t>60.95</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>سيدي ، أنا تحت أمرك ، والله. يعني عيني لك حفظك الله يا سعد المحترم والله ينقذك يا ندم تحت أمرك في أي استفسار آخر تود توضيحه لك.</t>
+          <t>حسنًا.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>63.28</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>العيون</t>
+          <t>نقاط القسيمة</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>سيدي ، أنا تحت أمرك ، والله. يعني عيني لك حفظك الله يا سعد المحترم والله ينقذك يا ندم تحت أمرك في أي استفسار آخر تود توضيحه لك.</t>
+          <t>لا تستخدم نقاط القسيمة التي هي ، لكنك ستستبدل النقاط التي هي 8942 نقطة ستقوم باستبدالها ، لكنك تختارها أمامنا قطرة ليست قصة أعنيها.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>63.28</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>سعد</t>
+          <t>8942 نقطة</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>سيدي ، أنا تحت أمرك ، والله. يعني عيني لك حفظك الله يا سعد المحترم والله ينقذك يا ندم تحت أمرك في أي استفسار آخر تود توضيحه لك.</t>
+          <t>لا تستخدم نقاط القسيمة التي هي ، لكنك ستستبدل النقاط التي هي 8942 نقطة ستقوم باستبدالها ، لكنك تختارها أمامنا قطرة ليست قصة أعنيها.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>106.08</t>
+          <t>63.28</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>خدمة</t>
+          <t>قطرة</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4552,7 +4540,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>في خدمتك يا سيدي.</t>
+          <t>لا تستخدم نقاط القسيمة التي هي ، لكنك ستستبدل النقاط التي هي 8942 نقطة ستقوم باستبدالها ، لكنك تختارها أمامنا قطرة ليست قصة أعنيها.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4564,17 +4552,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>106.08</t>
+          <t>63.28</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>سيد.</t>
+          <t>تَمْثِيلِيَّة</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4584,7 +4572,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>في خدمتك يا سيدي.</t>
+          <t>لا تستخدم نقاط القسيمة التي هي ، لكنك ستستبدل النقاط التي هي 8942 نقطة ستقوم باستبدالها ، لكنك تختارها أمامنا قطرة ليست قصة أعنيها.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4596,339 +4584,335 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>108.03</t>
+          <t>78.95</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>نفس الوقت</t>
+          <t>مشكلة فنية</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>أصبح اتصالك ووجودك في نفس الوقت. عزيزي باشا السلام عليك. رافقتك السلامة.</t>
+          <t>حسنا ، الخلاص لم يعد أكثر ، لذا حاول أن تجرب. قد يكون في مشكلة فنية مع الجهاز ، على سبيل المثال ، دعه يجرب جهازا آخر ، أو يجرب فرعا آخر ، ولكن ليس أكثر.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>108.03</t>
+          <t>78.95</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>عزيزي باشا</t>
+          <t>خلاص</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>أصبح اتصالك ووجودك في نفس الوقت. عزيزي باشا السلام عليك. رافقتك السلامة.</t>
+          <t>حسنا ، الخلاص لم يعد أكثر ، لذا حاول أن تجرب. قد يكون في مشكلة فنية مع الجهاز ، على سبيل المثال ، دعه يجرب جهازا آخر ، أو يجرب فرعا آخر ، ولكن ليس أكثر.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>108.03</t>
+          <t>78.95</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>اتصال</t>
+          <t>آلة</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>أصبح اتصالك ووجودك في نفس الوقت. عزيزي باشا السلام عليك. رافقتك السلامة.</t>
+          <t>حسنا ، الخلاص لم يعد أكثر ، لذا حاول أن تجرب. قد يكون في مشكلة فنية مع الجهاز ، على سبيل المثال ، دعه يجرب جهازا آخر ، أو يجرب فرعا آخر ، ولكن ليس أكثر.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>108.03</t>
+          <t>78.95</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>حضور</t>
+          <t>مثل</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>أصبح اتصالك ووجودك في نفس الوقت. عزيزي باشا السلام عليك. رافقتك السلامة.</t>
+          <t>حسنا ، الخلاص لم يعد أكثر ، لذا حاول أن تجرب. قد يكون في مشكلة فنية مع الجهاز ، على سبيل المثال ، دعه يجرب جهازا آخر ، أو يجرب فرعا آخر ، ولكن ليس أكثر.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 14</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>108.03</t>
+          <t>78.95</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>سلام</t>
+          <t>فرع</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>أصبح اتصالك ووجودك في نفس الوقت. عزيزي باشا السلام عليك. رافقتك السلامة.</t>
+          <t>حسنا ، الخلاص لم يعد أكثر ، لذا حاول أن تجرب. قد يكون في مشكلة فنية مع الجهاز ، على سبيل المثال ، دعه يجرب جهازا آخر ، أو يجرب فرعا آخر ، ولكن ليس أكثر.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>87.51</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>مساء الخير</t>
+          <t>خدمة</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>مساء الخير يا ألو.</t>
+          <t>طيب انا في خدمتكم واعتذر عن اي مشكلة معكم. طبعا يا ندم في ظل الله. بالطبع ، أي استفسار على ما يرام لحظة وجودك.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>87.51</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>الو.</t>
+          <t>مشكلة</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>مساء الخير يا ألو.</t>
+          <t>طيب انا في خدمتكم واعتذر عن اي مشكلة معكم. طبعا يا ندم في ظل الله. بالطبع ، أي استفسار على ما يرام لحظة وجودك.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>87.51</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>مساء الخير</t>
+          <t>أسف</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>السلام عليكم. مساء الخير يا سيدي معك محمد شبلي يا سيدي؟</t>
+          <t>طيب انا في خدمتكم واعتذر عن اي مشكلة معكم. طبعا يا ندم في ظل الله. بالطبع ، أي استفسار على ما يرام لحظة وجودك.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>87.51</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>محمد شبلي</t>
+          <t>الله</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>السلام عليكم. مساء الخير يا سيدي معك محمد شبلي يا سيدي؟</t>
+          <t>طيب انا في خدمتكم واعتذر عن اي مشكلة معكم. طبعا يا ندم في ظل الله. بالطبع ، أي استفسار على ما يرام لحظة وجودك.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160260415</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>87.51</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>سلام</t>
+          <t>استخبار</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>السلام عليكم. مساء الخير يا سيدي معك محمد شبلي يا سيدي؟</t>
+          <t>طيب انا في خدمتكم واعتذر عن اي مشكلة معكم. طبعا يا ندم في ظل الله. بالطبع ، أي استفسار على ما يرام لحظة وجودك.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>السيد محمد</t>
-        </is>
-      </c>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
           <t>محايد</t>
@@ -4936,7 +4920,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>أهلا بك سيد محمد.</t>
+          <t>معك؟</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4948,44 +4932,44 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>أهلًا وسهلًا</t>
+          <t>مرحبا السيدة رفيدة</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>أهلا بك سيد محمد.</t>
+          <t>الو. مرحبا السيدة رافدة ، نعم ، صوتك بعيد. معذرة سيدي. هل يمكنك أن تسمعني؟ أوه ، هذا جيد؟ تفضل ، ندم ، استفسارك عن نفس الرقم عن طريق الاتصال بي منه ، أوه تفضل ، حسنا أنا الآن.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4995,162 +4979,162 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>بارك الله فيك يا سيدي. إنه طيب. الحمد لله ربي. ليس لدي أي استفسار عن نفس الرقم.</t>
+          <t>الو. مرحبا السيدة رافدة ، نعم ، صوتك بعيد. معذرة سيدي. هل يمكنك أن تسمعني؟ أوه ، هذا جيد؟ تفضل ، ندم ، استفسارك عن نفس الرقم عن طريق الاتصال بي منه ، أوه تفضل ، حسنا أنا الآن.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>مدح</t>
+          <t>الو</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>بارك الله فيك يا سيدي. إنه طيب. الحمد لله ربي. ليس لدي أي استفسار عن نفس الرقم.</t>
+          <t>الو. مرحبا السيدة رافدة ، نعم ، صوتك بعيد. معذرة سيدي. هل يمكنك أن تسمعني؟ أوه ، هذا جيد؟ تفضل ، ندم ، استفسارك عن نفس الرقم عن طريق الاتصال بي منه ، أوه تفضل ، حسنا أنا الآن.</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>الله</t>
+          <t>صوت</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>بارك الله فيك يا سيدي. إنه طيب. الحمد لله ربي. ليس لدي أي استفسار عن نفس الرقم.</t>
+          <t>الو. مرحبا السيدة رافدة ، نعم ، صوتك بعيد. معذرة سيدي. هل يمكنك أن تسمعني؟ أوه ، هذا جيد؟ تفضل ، ندم ، استفسارك عن نفس الرقم عن طريق الاتصال بي منه ، أوه تفضل ، حسنا أنا الآن.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>رب</t>
+          <t>استخبار</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>بارك الله فيك يا سيدي. إنه طيب. الحمد لله ربي. ليس لدي أي استفسار عن نفس الرقم.</t>
+          <t>الو. مرحبا السيدة رافدة ، نعم ، صوتك بعيد. معذرة سيدي. هل يمكنك أن تسمعني؟ أوه ، هذا جيد؟ تفضل ، ندم ، استفسارك عن نفس الرقم عن طريق الاتصال بي منه ، أوه تفضل ، حسنا أنا الآن.</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>21.56</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>استخبار</t>
+          <t>قطط</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>بارك الله فيك يا سيدي. إنه طيب. الحمد لله ربي. ليس لدي أي استفسار عن نفس الرقم.</t>
+          <t>القطط يعني أنني قطعت الخط علي بسبب الفاتورة وأنا في العمل وأحتاج إلى الهاتف ضروري جدا.</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>21.56</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>نفس الرقم</t>
+          <t>سطر</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5160,7 +5144,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>بنفس الرقم يا سيدي. استفسارك الان يا سيدي ما زلت اجدد الباقة بس بعد اذنك تريد التأكد من ان الباقة قد اعادة شحنها بقوة و لا؟</t>
+          <t>القطط يعني أنني قطعت الخط علي بسبب الفاتورة وأنا في العمل وأحتاج إلى الهاتف ضروري جدا.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5172,17 +5156,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>21.56</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>سيد</t>
+          <t>فاتورة</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5192,7 +5176,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>بنفس الرقم يا سيدي. استفسارك الان يا سيدي ما زلت اجدد الباقة بس بعد اذنك تريد التأكد من ان الباقة قد اعادة شحنها بقوة و لا؟</t>
+          <t>القطط يعني أنني قطعت الخط علي بسبب الفاتورة وأنا في العمل وأحتاج إلى الهاتف ضروري جدا.</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5204,17 +5188,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>21.56</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>استخبار</t>
+          <t>عمل</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5224,7 +5208,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>بنفس الرقم يا سيدي. استفسارك الان يا سيدي ما زلت اجدد الباقة بس بعد اذنك تريد التأكد من ان الباقة قد اعادة شحنها بقوة و لا؟</t>
+          <t>القطط يعني أنني قطعت الخط علي بسبب الفاتورة وأنا في العمل وأحتاج إلى الهاتف ضروري جدا.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5236,17 +5220,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>21.56</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>حزمة</t>
+          <t>الهاتف</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5256,7 +5240,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>بنفس الرقم يا سيدي. استفسارك الان يا سيدي ما زلت اجدد الباقة بس بعد اذنك تريد التأكد من ان الباقة قد اعادة شحنها بقوة و لا؟</t>
+          <t>القطط يعني أنني قطعت الخط علي بسبب الفاتورة وأنا في العمل وأحتاج إلى الهاتف ضروري جدا.</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5268,17 +5252,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>28.99</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>إذن</t>
+          <t>امين</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5288,7 +5272,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>بنفس الرقم يا سيدي. استفسارك الان يا سيدي ما زلت اجدد الباقة بس بعد اذنك تريد التأكد من ان الباقة قد اعادة شحنها بقوة و لا؟</t>
+          <t>ربما يعملون حتى لا أصل إلى المنزل ، وأجدد وأشحن. أنا أغير أمين وهو يعمل بشكل طبيعي، جربه هكذا في الانتظار وأجر مكالمة.</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5300,17 +5284,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>28.99</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>أمر</t>
+          <t>دعا</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5320,7 +5304,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>لا؟ تحت أمرك؟</t>
+          <t>ربما يعملون حتى لا أصل إلى المنزل ، وأجدد وأشحن. أنا أغير أمين وهو يعمل بشكل طبيعي، جربه هكذا في الانتظار وأجر مكالمة.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5332,91 +5316,91 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>22.95</t>
+          <t>40.31</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>الله</t>
+          <t>رب</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>مختلط</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>بارك الله فيك يا رب. وأعلنت يا رب يا رب ندم.</t>
+          <t>ما الذي ينبغي علي فعله؟ آسف ، ضعني في الانتظار وربي إجراء مكالمة لأنني أرى أنها تعمل؟</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>22.95</t>
+          <t>40.31</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>رب</t>
+          <t>دعا</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>مختلط</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>بارك الله فيك يا رب. وأعلنت يا رب يا رب ندم.</t>
+          <t>ما الذي ينبغي علي فعله؟ آسف ، ضعني في الانتظار وربي إجراء مكالمة لأنني أرى أنها تعمل؟</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>22.95</t>
+          <t>47.60</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>الندم</t>
+          <t>القداسه</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>مختلط</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>بارك الله فيك يا رب. وأعلنت يا رب يا رب ندم.</t>
+          <t>أنا لا أقول لقداستكم، جربوني، أحاول وأنا طبيعي.</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5428,17 +5412,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>57.75</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>إجراءات الشحن</t>
+          <t>اتصالات كاش</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5448,7 +5432,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>هل هو إجراء شحن أم إجراء تحاول تجديد هذه البكرة؟ لقد مرت 30 دقيقة أم أنها مضت؟</t>
+          <t>يمكن لاتصالات كاش تحويل واستلام الأموال من أي شخص في مصر. وسفن RS.</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5460,17 +5444,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>57.75</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>بكره</t>
+          <t>سفن RS</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5480,7 +5464,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>هل هو إجراء شحن أم إجراء تحاول تجديد هذه البكرة؟ لقد مرت 30 دقيقة أم أنها مضت؟</t>
+          <t>يمكن لاتصالات كاش تحويل واستلام الأموال من أي شخص في مصر. وسفن RS.</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5492,17 +5476,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>57.75</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>30 دقيقة</t>
+          <t>مال</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5512,7 +5496,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>هل هو إجراء شحن أم إجراء تحاول تجديد هذه البكرة؟ لقد مرت 30 دقيقة أم أنها مضت؟</t>
+          <t>يمكن لاتصالات كاش تحويل واستلام الأموال من أي شخص في مصر. وسفن RS.</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5524,17 +5508,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>57.75</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>إجراءات الشحن</t>
+          <t>شخص</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5544,7 +5528,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>هل هو إجراء شحن أم إجراء تحاول تجديد هذه البكرة؟ لقد مرت 30 دقيقة أم أنها مضت؟</t>
+          <t>يمكن لاتصالات كاش تحويل واستلام الأموال من أي شخص في مصر. وسفن RS.</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5556,17 +5540,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>57.75</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>بكره</t>
+          <t>مصر</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5576,7 +5560,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>هل هو إجراء شحن أم إجراء تحاول تجديد هذه البكرة؟ لقد مرت 30 دقيقة أم أنها مضت؟</t>
+          <t>يمكن لاتصالات كاش تحويل واستلام الأموال من أي شخص في مصر. وسفن RS.</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5588,49 +5572,49 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>63.83</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>30 دقيقة</t>
+          <t>إنترنت</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>موجب</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>هل هو إجراء شحن أم إجراء تحاول تجديد هذه البكرة؟ لقد مرت 30 دقيقة أم أنها مضت؟</t>
+          <t>اه في احسن الاحوال. استمر. جرب الإنترنت مثل هذا؟</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>34.39</t>
+          <t>68.83</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>شاحن</t>
+          <t>اللحظات</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5640,7 +5624,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ما زلت تم تجديده. أنا لست شاحن الحزمة الآن وعملت على هذا النحو. ماذا؟ تجديد الباقة في وقت مبكر؟ أريد فقط أن أعرف هل كان أو؟</t>
+          <t>ألا تعمل لحظات معي؟</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5652,17 +5636,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>34.39</t>
+          <t>73.16</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>حزمة</t>
+          <t>لحظات سامسونج</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5672,7 +5656,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ما زلت تم تجديده. أنا لست شاحن الحزمة الآن وعملت على هذا النحو. ماذا؟ تجديد الباقة في وقت مبكر؟ أريد فقط أن أعرف هل كان أو؟</t>
+          <t>اي فون المحمول الخاص بك؟ حسنًا؟ ما هو هاتفك المحمول؟ ايفون بخير؟ لا لحظات سامسونج معي؟</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5684,17 +5668,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>34.39</t>
+          <t>73.16</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>الوقت</t>
+          <t>اي فون المحمول</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5704,7 +5688,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ما زلت تم تجديده. أنا لست شاحن الحزمة الآن وعملت على هذا النحو. ماذا؟ تجديد الباقة في وقت مبكر؟ أريد فقط أن أعرف هل كان أو؟</t>
+          <t>اي فون المحمول الخاص بك؟ حسنًا؟ ما هو هاتفك المحمول؟ ايفون بخير؟ لا لحظات سامسونج معي؟</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5716,17 +5700,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>34.39</t>
+          <t>73.16</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>شاحن</t>
+          <t>ايفون</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5736,7 +5720,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ما زلت تم تجديده. أنا لست شاحن الحزمة الآن وعملت على هذا النحو. ماذا؟ تجديد الباقة في وقت مبكر؟ أريد فقط أن أعرف هل كان أو؟</t>
+          <t>اي فون المحمول الخاص بك؟ حسنًا؟ ما هو هاتفك المحمول؟ ايفون بخير؟ لا لحظات سامسونج معي؟</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5748,17 +5732,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>34.39</t>
+          <t>73.16</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>حزمة</t>
+          <t>لا</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5768,7 +5752,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ما زلت تم تجديده. أنا لست شاحن الحزمة الآن وعملت على هذا النحو. ماذا؟ تجديد الباقة في وقت مبكر؟ أريد فقط أن أعرف هل كان أو؟</t>
+          <t>اي فون المحمول الخاص بك؟ حسنًا؟ ما هو هاتفك المحمول؟ ايفون بخير؟ لا لحظات سامسونج معي؟</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5780,207 +5764,211 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>34.39</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>الوقت</t>
+          <t>خطة تنشيطية</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ما زلت تم تجديده. أنا لست شاحن الحزمة الآن وعملت على هذا النحو. ماذا؟ تجديد الباقة في وقت مبكر؟ أريد فقط أن أعرف هل كان أو؟</t>
+          <t>بالطبع ، لديك خطة تنشيطية. أحتاج إلى ذلك بعد إنهاء المكالمة معها ، هل سنقوم بالرحلة الرابعة ، حسنا؟ حسنًا؟ بعد ذلك ، نلغي وضع الطيران ونجرب الإنترنت. هل تعمل؟ لم تنجح. هل سنطفئ الهاتف الخلوي ونفتحه في 5 دقائق ، حسنا؟</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>44.51</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>فخامه</t>
+          <t>الرحلة الرابعة</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>لا، بأمر من سعادتك؟ الباقة عامة يا سيدي. ما الجديد معك ، عادي. لا توجد مشكلة تماما. ولكن ، بالطبع ، لقد تأخرت بالنسبة لك ، لذلك لم يكن لدي 30D عليه؟</t>
+          <t>بالطبع ، لديك خطة تنشيطية. أحتاج إلى ذلك بعد إنهاء المكالمة معها ، هل سنقوم بالرحلة الرابعة ، حسنا؟ حسنًا؟ بعد ذلك ، نلغي وضع الطيران ونجرب الإنترنت. هل تعمل؟ لم تنجح. هل سنطفئ الهاتف الخلوي ونفتحه في 5 دقائق ، حسنا؟</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>44.51</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>أمر</t>
+          <t>وضع الطيران</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>لا، بأمر من سعادتك؟ الباقة عامة يا سيدي. ما الجديد معك ، عادي. لا توجد مشكلة تماما. ولكن ، بالطبع ، لقد تأخرت بالنسبة لك ، لذلك لم يكن لدي 30D عليه؟</t>
+          <t>بالطبع ، لديك خطة تنشيطية. أحتاج إلى ذلك بعد إنهاء المكالمة معها ، هل سنقوم بالرحلة الرابعة ، حسنا؟ حسنًا؟ بعد ذلك ، نلغي وضع الطيران ونجرب الإنترنت. هل تعمل؟ لم تنجح. هل سنطفئ الهاتف الخلوي ونفتحه في 5 دقائق ، حسنا؟</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>44.51</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>باقه</t>
+          <t>هاتف خلوي</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>لا، بأمر من سعادتك؟ الباقة عامة يا سيدي. ما الجديد معك ، عادي. لا توجد مشكلة تماما. ولكن ، بالطبع ، لقد تأخرت بالنسبة لك ، لذلك لم يكن لدي 30D عليه؟</t>
+          <t>بالطبع ، لديك خطة تنشيطية. أحتاج إلى ذلك بعد إنهاء المكالمة معها ، هل سنقوم بالرحلة الرابعة ، حسنا؟ حسنًا؟ بعد ذلك ، نلغي وضع الطيران ونجرب الإنترنت. هل تعمل؟ لم تنجح. هل سنطفئ الهاتف الخلوي ونفتحه في 5 دقائق ، حسنا؟</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>44.51</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>مشكلة</t>
+          <t>إنترنت</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>لا، بأمر من سعادتك؟ الباقة عامة يا سيدي. ما الجديد معك ، عادي. لا توجد مشكلة تماما. ولكن ، بالطبع ، لقد تأخرت بالنسبة لك ، لذلك لم يكن لدي 30D عليه؟</t>
+          <t>بالطبع ، لديك خطة تنشيطية. أحتاج إلى ذلك بعد إنهاء المكالمة معها ، هل سنقوم بالرحلة الرابعة ، حسنا؟ حسنًا؟ بعد ذلك ، نلغي وضع الطيران ونجرب الإنترنت. هل تعمل؟ لم تنجح. هل سنطفئ الهاتف الخلوي ونفتحه في 5 دقائق ، حسنا؟</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>44.51</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>30 د</t>
+          <t>5 دقائق</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>لا، بأمر من سعادتك؟ الباقة عامة يا سيدي. ما الجديد معك ، عادي. لا توجد مشكلة تماما. ولكن ، بالطبع ، لقد تأخرت بالنسبة لك ، لذلك لم يكن لدي 30D عليه؟</t>
+          <t>بالطبع ، لديك خطة تنشيطية. أحتاج إلى ذلك بعد إنهاء المكالمة معها ، هل سنقوم بالرحلة الرابعة ، حسنا؟ حسنًا؟ بعد ذلك ، نلغي وضع الطيران ونجرب الإنترنت. هل تعمل؟ لم تنجح. هل سنطفئ الهاتف الخلوي ونفتحه في 5 دقائق ، حسنا؟</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>55.15</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr"/>
+          <t>104.64</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>نقطة غير واضحة</t>
+        </is>
+      </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>محايد</t>
@@ -5988,7 +5976,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>أه ، نعم ، حقا؟</t>
+          <t>في أي سؤال لديك أو أي نقطة غير واضحة.</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6000,49 +5988,49 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>57.68</t>
+          <t>104.64</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>نافذة نجمة 319</t>
+          <t>سؤال</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>هل ترغب في الاستفسار عن باقتنا في أي وقت هل يمكننا الاستفسار بشكل طبيعي من خلال الكود ستار 319 نافذة تمام؟ تحت أمر قداستك ، الباقة التالية مع قداستك ، وليس هناك أدنى مشكلة الآن ، ربنا سيعلن لك يا رب ويغلي صرحك يا رب. شكرا جزيلا لك، شكرا جزيلا لك، سيدي، شكرا لك.</t>
+          <t>في أي سؤال لديك أو أي نقطة غير واضحة.</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>57.68</t>
+          <t>108.28</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>الباقة التالية</t>
+          <t>يوم سعيد</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6052,7 +6040,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>هل ترغب في الاستفسار عن باقتنا في أي وقت هل يمكننا الاستفسار بشكل طبيعي من خلال الكود ستار 319 نافذة تمام؟ تحت أمر قداستك ، الباقة التالية مع قداستك ، وليس هناك أدنى مشكلة الآن ، ربنا سيعلن لك يا رب ويغلي صرحك يا رب. شكرا جزيلا لك، شكرا جزيلا لك، سيدي، شكرا لك.</t>
+          <t>يوم سعيد نأمل لخدمتكم في مكالمتك. رافقتك السلامة.</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6064,17 +6052,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>57.68</t>
+          <t>108.28</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>أدنى مشكلة</t>
+          <t>خدمة</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -6084,7 +6072,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>هل ترغب في الاستفسار عن باقتنا في أي وقت هل يمكننا الاستفسار بشكل طبيعي من خلال الكود ستار 319 نافذة تمام؟ تحت أمر قداستك ، الباقة التالية مع قداستك ، وليس هناك أدنى مشكلة الآن ، ربنا سيعلن لك يا رب ويغلي صرحك يا رب. شكرا جزيلا لك، شكرا جزيلا لك، سيدي، شكرا لك.</t>
+          <t>يوم سعيد نأمل لخدمتكم في مكالمتك. رافقتك السلامة.</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6096,17 +6084,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>160675031</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>57.68</t>
+          <t>108.28</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>حزمة</t>
+          <t>دعا</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -6116,7 +6104,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>هل ترغب في الاستفسار عن باقتنا في أي وقت هل يمكننا الاستفسار بشكل طبيعي من خلال الكود ستار 319 نافذة تمام؟ تحت أمر قداستك ، الباقة التالية مع قداستك ، وليس هناك أدنى مشكلة الآن ، ربنا سيعلن لك يا رب ويغلي صرحك يا رب. شكرا جزيلا لك، شكرا جزيلا لك، سيدي، شكرا لك.</t>
+          <t>يوم سعيد نأمل لخدمتكم في مكالمتك. رافقتك السلامة.</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6128,17 +6116,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>57.68</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>الوقت</t>
+          <t>الصباح</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -6148,7 +6136,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>هل ترغب في الاستفسار عن باقتنا في أي وقت هل يمكننا الاستفسار بشكل طبيعي من خلال الكود ستار 319 نافذة تمام؟ تحت أمر قداستك ، الباقة التالية مع قداستك ، وليس هناك أدنى مشكلة الآن ، ربنا سيعلن لك يا رب ويغلي صرحك يا رب. شكرا جزيلا لك، شكرا جزيلا لك، سيدي، شكرا لك.</t>
+          <t>صباح الخير معك.</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6160,271 +6148,275 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>57.68</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>رمز</t>
+          <t>السيد الشروق</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>مختلط</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>هل ترغب في الاستفسار عن باقتنا في أي وقت هل يمكننا الاستفسار بشكل طبيعي من خلال الكود ستار 319 نافذة تمام؟ تحت أمر قداستك ، الباقة التالية مع قداستك ، وليس هناك أدنى مشكلة الآن ، ربنا سيعلن لك يا رب ويغلي صرحك يا رب. شكرا جزيلا لك، شكرا جزيلا لك، سيدي، شكرا لك.</t>
+          <t>صباح الخير. صباح الخير سيدي. أهلا بك يا سيد الشروق معي؟ يمين؟ كيف؟ هل أنت عامل؟ نعم؟ كل شيء حلو يا حبيبتي؟ كيف حالك؟ الحمد لله أنك تحت قيادتك بالكامل ، من فضلك كيف يمكنني مساعدتك؟ من المفترض أن أقف على خطي لأن لدي فاتورة ، لكنني أديرها على مدار 24 ساعة ، ولا أريد العمل.</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>57.68</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>تمام</t>
+          <t>الصباح</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>مختلط</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>هل ترغب في الاستفسار عن باقتنا في أي وقت هل يمكننا الاستفسار بشكل طبيعي من خلال الكود ستار 319 نافذة تمام؟ تحت أمر قداستك ، الباقة التالية مع قداستك ، وليس هناك أدنى مشكلة الآن ، ربنا سيعلن لك يا رب ويغلي صرحك يا رب. شكرا جزيلا لك، شكرا جزيلا لك، سيدي، شكرا لك.</t>
+          <t>صباح الخير. صباح الخير سيدي. أهلا بك يا سيد الشروق معي؟ يمين؟ كيف؟ هل أنت عامل؟ نعم؟ كل شيء حلو يا حبيبتي؟ كيف حالك؟ الحمد لله أنك تحت قيادتك بالكامل ، من فضلك كيف يمكنني مساعدتك؟ من المفترض أن أقف على خطي لأن لدي فاتورة ، لكنني أديرها على مدار 24 ساعة ، ولا أريد العمل.</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>57.68</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>أمر</t>
+          <t>عامل</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>مختلط</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>هل ترغب في الاستفسار عن باقتنا في أي وقت هل يمكننا الاستفسار بشكل طبيعي من خلال الكود ستار 319 نافذة تمام؟ تحت أمر قداستك ، الباقة التالية مع قداستك ، وليس هناك أدنى مشكلة الآن ، ربنا سيعلن لك يا رب ويغلي صرحك يا رب. شكرا جزيلا لك، شكرا جزيلا لك، سيدي، شكرا لك.</t>
+          <t>صباح الخير. صباح الخير سيدي. أهلا بك يا سيد الشروق معي؟ يمين؟ كيف؟ هل أنت عامل؟ نعم؟ كل شيء حلو يا حبيبتي؟ كيف حالك؟ الحمد لله أنك تحت قيادتك بالكامل ، من فضلك كيف يمكنني مساعدتك؟ من المفترض أن أقف على خطي لأن لدي فاتورة ، لكنني أديرها على مدار 24 ساعة ، ولا أريد العمل.</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>57.68</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>القداسه</t>
+          <t>الله</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>مختلط</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>هل ترغب في الاستفسار عن باقتنا في أي وقت هل يمكننا الاستفسار بشكل طبيعي من خلال الكود ستار 319 نافذة تمام؟ تحت أمر قداستك ، الباقة التالية مع قداستك ، وليس هناك أدنى مشكلة الآن ، ربنا سيعلن لك يا رب ويغلي صرحك يا رب. شكرا جزيلا لك، شكرا جزيلا لك، سيدي، شكرا لك.</t>
+          <t>صباح الخير. صباح الخير سيدي. أهلا بك يا سيد الشروق معي؟ يمين؟ كيف؟ هل أنت عامل؟ نعم؟ كل شيء حلو يا حبيبتي؟ كيف حالك؟ الحمد لله أنك تحت قيادتك بالكامل ، من فضلك كيف يمكنني مساعدتك؟ من المفترض أن أقف على خطي لأن لدي فاتورة ، لكنني أديرها على مدار 24 ساعة ، ولا أريد العمل.</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>57.68</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>رب</t>
+          <t>أمر</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>مختلط</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>هل ترغب في الاستفسار عن باقتنا في أي وقت هل يمكننا الاستفسار بشكل طبيعي من خلال الكود ستار 319 نافذة تمام؟ تحت أمر قداستك ، الباقة التالية مع قداستك ، وليس هناك أدنى مشكلة الآن ، ربنا سيعلن لك يا رب ويغلي صرحك يا رب. شكرا جزيلا لك، شكرا جزيلا لك، سيدي، شكرا لك.</t>
+          <t>صباح الخير. صباح الخير سيدي. أهلا بك يا سيد الشروق معي؟ يمين؟ كيف؟ هل أنت عامل؟ نعم؟ كل شيء حلو يا حبيبتي؟ كيف حالك؟ الحمد لله أنك تحت قيادتك بالكامل ، من فضلك كيف يمكنني مساعدتك؟ من المفترض أن أقف على خطي لأن لدي فاتورة ، لكنني أديرها على مدار 24 ساعة ، ولا أريد العمل.</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>57.68</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>الصرح</t>
+          <t>سطر</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>مختلط</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>هل ترغب في الاستفسار عن باقتنا في أي وقت هل يمكننا الاستفسار بشكل طبيعي من خلال الكود ستار 319 نافذة تمام؟ تحت أمر قداستك ، الباقة التالية مع قداستك ، وليس هناك أدنى مشكلة الآن ، ربنا سيعلن لك يا رب ويغلي صرحك يا رب. شكرا جزيلا لك، شكرا جزيلا لك، سيدي، شكرا لك.</t>
+          <t>صباح الخير. صباح الخير سيدي. أهلا بك يا سيد الشروق معي؟ يمين؟ كيف؟ هل أنت عامل؟ نعم؟ كل شيء حلو يا حبيبتي؟ كيف حالك؟ الحمد لله أنك تحت قيادتك بالكامل ، من فضلك كيف يمكنني مساعدتك؟ من المفترض أن أقف على خطي لأن لدي فاتورة ، لكنني أديرها على مدار 24 ساعة ، ولا أريد العمل.</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>الف امان</t>
+          <t>فاتورة</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>مختلط</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ألف أمان يا فنديم. ألف أمان.</t>
+          <t>صباح الخير. صباح الخير سيدي. أهلا بك يا سيد الشروق معي؟ يمين؟ كيف؟ هل أنت عامل؟ نعم؟ كل شيء حلو يا حبيبتي؟ كيف حالك؟ الحمد لله أنك تحت قيادتك بالكامل ، من فضلك كيف يمكنني مساعدتك؟ من المفترض أن أقف على خطي لأن لدي فاتورة ، لكنني أديرها على مدار 24 ساعة ، ولا أريد العمل.</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>21.39</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>فينديم</t>
+          <t>نفس الرقم</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ألف أمان يا فنديم. ألف أمان.</t>
+          <t>حسنا، حسنا، للحظة، لدي العدد نفسه.</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 15</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>82.41</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr"/>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>نفس الرقم</t>
+        </is>
+      </c>
       <c r="D189" t="inlineStr">
         <is>
           <t>محايد</t>
@@ -6432,7 +6424,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>صفر.</t>
+          <t>نفس الرقم الذي أعطيتني منه. نعم ، نفس الرقم ، حسنا؟ حسنا ، والمكالمات على ما يرام؟ عملهم؟ هل أنت بخير؟ لا ، كل شيء مقفل؟</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6444,91 +6436,91 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>25.24</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>مساء الخير</t>
+          <t>المكالمات</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>مساء الخير. اتصالك معنا معك.</t>
+          <t>نفس الرقم الذي أعطيتني منه. نعم ، نفس الرقم ، حسنا؟ حسنا ، والمكالمات على ما يرام؟ عملهم؟ هل أنت بخير؟ لا ، كل شيء مقفل؟</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>25.24</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>الاتصال</t>
+          <t>عمل</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>مساء الخير. اتصالك معنا معك.</t>
+          <t>نفس الرقم الذي أعطيتني منه. نعم ، نفس الرقم ، حسنا؟ حسنا ، والمكالمات على ما يرام؟ عملهم؟ هل أنت بخير؟ لا ، كل شيء مقفل؟</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>33.15</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>عمت مساءً سيدي</t>
+          <t>إذن</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>مختلط</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>عمت مساءً سيدي. من فضلك ، أنا لا أرى وأريد تجديد حزمة القصة.</t>
+          <t>امش لحظة معي. ولكن بعد إذنك ، بالطبع ، تفضل.</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6540,91 +6532,83 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>54.28</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>حزمة القصة</t>
+          <t>العبارة الرئيسية7</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>مختلط</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>عمت مساءً سيدي. من فضلك ، أنا لا أرى وأريد تجديد حزمة القصة.</t>
-        </is>
-      </c>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>54.28</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>عمت مساءً سيدي</t>
+          <t>العبارة الرئيسية5</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>مختلط</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>عمت مساءً سيدي. من فضلك ، أنا لا أرى وأريد تجديد حزمة القصة.</t>
-        </is>
-      </c>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>62.49</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>حزمة القصة</t>
+          <t>وضع الطيران</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>مختلط</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>عمت مساءً سيدي. من فضلك ، أنا لا أرى وأريد تجديد حزمة القصة.</t>
+          <t>حسنا ، وجودك معي؟ أه ، معايا موجودة. هل يمكنني فقط طلب إذنك ، هل نجعل وضع الطيران على ما يرام؟ الآن ، أول شيء مغلق معك هو أنني سآخذ إجراء من خلالي ، وسوف تعمل ، ولكن وضع الطيران لمدة 10 ثوان ، في المرة الأولى التي أغلق فيها معك ، سآخذ الإجراء ، وبعد ذلك ، سأتصل بك مرة أخرى. هل يجب أن أؤكد هذا جيدا معك أم لا؟</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6636,241 +6620,237 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>62.49</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>أشرف الحافظ</t>
+          <t>بادئ ذي بدء</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>تحت أمرك ممكن. تكريم؟ باسم قداستكم أشرف الحافظ. مرحبا بك سيد أشرف. كيف حالك يا سيدي؟ تماما والحمد لله يا سيدي فهل الباقة هكذا؟ فاضلة لها أربعة.</t>
+          <t>حسنا ، وجودك معي؟ أه ، معايا موجودة. هل يمكنني فقط طلب إذنك ، هل نجعل وضع الطيران على ما يرام؟ الآن ، أول شيء مغلق معك هو أنني سآخذ إجراء من خلالي ، وسوف تعمل ، ولكن وضع الطيران لمدة 10 ثوان ، في المرة الأولى التي أغلق فيها معك ، سآخذ الإجراء ، وبعد ذلك ، سأتصل بك مرة أخرى. هل يجب أن أؤكد هذا جيدا معك أم لا؟</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>62.49</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>السيد أشرف</t>
+          <t>حضور</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>تحت أمرك ممكن. تكريم؟ باسم قداستكم أشرف الحافظ. مرحبا بك سيد أشرف. كيف حالك يا سيدي؟ تماما والحمد لله يا سيدي فهل الباقة هكذا؟ فاضلة لها أربعة.</t>
+          <t>حسنا ، وجودك معي؟ أه ، معايا موجودة. هل يمكنني فقط طلب إذنك ، هل نجعل وضع الطيران على ما يرام؟ الآن ، أول شيء مغلق معك هو أنني سآخذ إجراء من خلالي ، وسوف تعمل ، ولكن وضع الطيران لمدة 10 ثوان ، في المرة الأولى التي أغلق فيها معك ، سآخذ الإجراء ، وبعد ذلك ، سأتصل بك مرة أخرى. هل يجب أن أؤكد هذا جيدا معك أم لا؟</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>62.49</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>أمر</t>
+          <t>معايا</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>تحت أمرك ممكن. تكريم؟ باسم قداستكم أشرف الحافظ. مرحبا بك سيد أشرف. كيف حالك يا سيدي؟ تماما والحمد لله يا سيدي فهل الباقة هكذا؟ فاضلة لها أربعة.</t>
+          <t>حسنا ، وجودك معي؟ أه ، معايا موجودة. هل يمكنني فقط طلب إذنك ، هل نجعل وضع الطيران على ما يرام؟ الآن ، أول شيء مغلق معك هو أنني سآخذ إجراء من خلالي ، وسوف تعمل ، ولكن وضع الطيران لمدة 10 ثوان ، في المرة الأولى التي أغلق فيها معك ، سآخذ الإجراء ، وبعد ذلك ، سأتصل بك مرة أخرى. هل يجب أن أؤكد هذا جيدا معك أم لا؟</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>62.49</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>اسم</t>
+          <t>إذن</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>تحت أمرك ممكن. تكريم؟ باسم قداستكم أشرف الحافظ. مرحبا بك سيد أشرف. كيف حالك يا سيدي؟ تماما والحمد لله يا سيدي فهل الباقة هكذا؟ فاضلة لها أربعة.</t>
+          <t>حسنا ، وجودك معي؟ أه ، معايا موجودة. هل يمكنني فقط طلب إذنك ، هل نجعل وضع الطيران على ما يرام؟ الآن ، أول شيء مغلق معك هو أنني سآخذ إجراء من خلالي ، وسوف تعمل ، ولكن وضع الطيران لمدة 10 ثوان ، في المرة الأولى التي أغلق فيها معك ، سآخذ الإجراء ، وبعد ذلك ، سأتصل بك مرة أخرى. هل يجب أن أؤكد هذا جيدا معك أم لا؟</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>62.49</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>القداسه</t>
+          <t>إجراء</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>تحت أمرك ممكن. تكريم؟ باسم قداستكم أشرف الحافظ. مرحبا بك سيد أشرف. كيف حالك يا سيدي؟ تماما والحمد لله يا سيدي فهل الباقة هكذا؟ فاضلة لها أربعة.</t>
+          <t>حسنا ، وجودك معي؟ أه ، معايا موجودة. هل يمكنني فقط طلب إذنك ، هل نجعل وضع الطيران على ما يرام؟ الآن ، أول شيء مغلق معك هو أنني سآخذ إجراء من خلالي ، وسوف تعمل ، ولكن وضع الطيران لمدة 10 ثوان ، في المرة الأولى التي أغلق فيها معك ، سآخذ الإجراء ، وبعد ذلك ، سأتصل بك مرة أخرى. هل يجب أن أؤكد هذا جيدا معك أم لا؟</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>62.49</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>الله</t>
+          <t>10 ثوان</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>موجب</t>
+          <t>محايد</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>تحت أمرك ممكن. تكريم؟ باسم قداستكم أشرف الحافظ. مرحبا بك سيد أشرف. كيف حالك يا سيدي؟ تماما والحمد لله يا سيدي فهل الباقة هكذا؟ فاضلة لها أربعة.</t>
+          <t>حسنا ، وجودك معي؟ أه ، معايا موجودة. هل يمكنني فقط طلب إذنك ، هل نجعل وضع الطيران على ما يرام؟ الآن ، أول شيء مغلق معك هو أنني سآخذ إجراء من خلالي ، وسوف تعمل ، ولكن وضع الطيران لمدة 10 ثوان ، في المرة الأولى التي أغلق فيها معك ، سآخذ الإجراء ، وبعد ذلك ، سأتصل بك مرة أخرى. هل يجب أن أؤكد هذا جيدا معك أم لا؟</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>81.87</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>باقه</t>
+          <t>العبارة الرئيسية6</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>تحت أمرك ممكن. تكريم؟ باسم قداستكم أشرف الحافظ. مرحبا بك سيد أشرف. كيف حالك يا سيدي؟ تماما والحمد لله يا سيدي فهل الباقة هكذا؟ فاضلة لها أربعة.</t>
-        </is>
-      </c>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>81.87</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>حضور</t>
+          <t>العبارة الرئيسية4</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6878,11 +6858,7 @@
           <t>محايد</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>أنا وجودهم لك الآن. وسأجدد الحزمة وأعطيك طريقة التجديد في السلعة. لذلك إذا كنت ترغب في تجديده من خلال وجودك في أي وقت.</t>
-        </is>
-      </c>
+      <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
           <t>0</t>
@@ -6892,2664 +6868,128 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>83.38</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>حزمة</t>
+          <t>الوقت</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>أنا وجودهم لك الآن. وسأجدد الحزمة وأعطيك طريقة التجديد في السلعة. لذلك إذا كنت ترغب في تجديده من خلال وجودك في أي وقت.</t>
+          <t>في وقت واحد؟ بالتأكيد أي شيء آخر؟ لا ، لا تسلمني تحت أمرك ، لقد كرمتني بالطلب ثم وداعا.</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>83.38</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>أسلوب</t>
+          <t>أمر</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>أنا وجودهم لك الآن. وسأجدد الحزمة وأعطيك طريقة التجديد في السلعة. لذلك إذا كنت ترغب في تجديده من خلال وجودك في أي وقت.</t>
+          <t>في وقت واحد؟ بالتأكيد أي شيء آخر؟ لا ، لا تسلمني تحت أمرك ، لقد كرمتني بالطلب ثم وداعا.</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>83.38</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>تجديد</t>
+          <t>طلب</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>أنا وجودهم لك الآن. وسأجدد الحزمة وأعطيك طريقة التجديد في السلعة. لذلك إذا كنت ترغب في تجديده من خلال وجودك في أي وقت.</t>
+          <t>في وقت واحد؟ بالتأكيد أي شيء آخر؟ لا ، لا تسلمني تحت أمرك ، لقد كرمتني بالطلب ثم وداعا.</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>اتصل بالرقم 16</t>
+          <t>161316483</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>83.38</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>بِضَاعَة</t>
+          <t>وداعًا</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>أنا وجودهم لك الآن. وسأجدد الحزمة وأعطيك طريقة التجديد في السلعة. لذلك إذا كنت ترغب في تجديده من خلال وجودك في أي وقت.</t>
+          <t>في وقت واحد؟ بالتأكيد أي شيء آخر؟ لا ، لا تسلمني تحت أمرك ، لقد كرمتني بالطلب ثم وداعا.</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 16</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>19.19</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>الوقت</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>أنا وجودهم لك الآن. وسأجدد الحزمة وأعطيك طريقة التجديد في السلعة. لذلك إذا كنت ترغب في تجديده من خلال وجودك في أي وقت.</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 16</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>27.99</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>أكل</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>طوع أمرك.</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 16</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>27.99</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>يد</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>طوع أمرك.</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 16</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>29.83</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>باقه</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>هل هذا موجود بالفعل في الباقة في وجودك؟ هل تريد مني مساعدتك في أي شيء آخر؟</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 16</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>29.83</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>حضور</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>هل هذا موجود بالفعل في الباقة في وجودك؟ هل تريد مني مساعدتك في أي شيء آخر؟</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 16</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>37.28</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>يوم سعيد</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>وجودك في اتصالات يتمنى لك يوما سعيدا آمل أن يشرفني على مكالمتك.</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 16</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>37.28</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>حضور</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>وجودك في اتصالات يتمنى لك يوما سعيدا آمل أن يشرفني على مكالمتك.</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 16</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>37.28</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>اتصالات</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>وجودك في اتصالات يتمنى لك يوما سعيدا آمل أن يشرفني على مكالمتك.</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 16</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>37.28</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>دعا</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>وجودك في اتصالات يتمنى لك يوما سعيدا آمل أن يشرفني على مكالمتك.</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>الصباح</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>صباح الخير ، حاليا معك.</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>السيد مؤمن</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>أهلا بك سيد مؤمن. يا رب، كن بخير. الحمد لله بخير حفظكم الله. الحمد لله الرقم والرقم تاني.</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>رب</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>أهلا بك سيد مؤمن. يا رب، كن بخير. الحمد لله بخير حفظكم الله. الحمد لله الرقم والرقم تاني.</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>الله</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>أهلا بك سيد مؤمن. يا رب، كن بخير. الحمد لله بخير حفظكم الله. الحمد لله الرقم والرقم تاني.</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>رقم</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>أهلا بك سيد مؤمن. يا رب، كن بخير. الحمد لله بخير حفظكم الله. الحمد لله الرقم والرقم تاني.</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>تاني</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>أهلا بك سيد مؤمن. يا رب، كن بخير. الحمد لله بخير حفظكم الله. الحمد لله الرقم والرقم تاني.</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>رقم</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>لقد عملت هذا الرقم ، أنت مرحب بك تحت قيادتك ، أردت فقط ضغط الإنترنت قبل إعادته.</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>أمر</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>لقد عملت هذا الرقم ، أنت مرحب بك تحت قيادتك ، أردت فقط ضغط الإنترنت قبل إعادته.</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>إنترنت</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>لقد عملت هذا الرقم ، أنت مرحب بك تحت قيادتك ، أردت فقط ضغط الإنترنت قبل إعادته.</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>رقم</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>لقد عملت هذا الرقم ، أنت مرحب بك تحت قيادتك ، أردت فقط ضغط الإنترنت قبل إعادته.</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>أمر</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>لقد عملت هذا الرقم ، أنت مرحب بك تحت قيادتك ، أردت فقط ضغط الإنترنت قبل إعادته.</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>إنترنت</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>لقد عملت هذا الرقم ، أنت مرحب بك تحت قيادتك ، أردت فقط ضغط الإنترنت قبل إعادته.</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>22.44</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>التجديد المبكر</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>ترغب في تجديده مبكرا ، نعم موجود في خدمتك ، كما يمكننا تجديد التجديد المبكر من خلال الرمز #566* أو من تمام أو من خلالنا بموجب طلبك في أي وقت</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>22.44</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>خدمة</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>ترغب في تجديده مبكرا ، نعم موجود في خدمتك ، كما يمكننا تجديد التجديد المبكر من خلال الرمز #566* أو من تمام أو من خلالنا بموجب طلبك في أي وقت</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>22.44</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>رمز</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>ترغب في تجديده مبكرا ، نعم موجود في خدمتك ، كما يمكننا تجديد التجديد المبكر من خلال الرمز #566* أو من تمام أو من خلالنا بموجب طلبك في أي وقت</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>22.44</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>التمامة</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>ترغب في تجديده مبكرا ، نعم موجود في خدمتك ، كما يمكننا تجديد التجديد المبكر من خلال الرمز #566* أو من تمام أو من خلالنا بموجب طلبك في أي وقت</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>22.44</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>ترتيب</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>ترغب في تجديده مبكرا ، نعم موجود في خدمتك ، كما يمكننا تجديد التجديد المبكر من خلال الرمز #566* أو من تمام أو من خلالنا بموجب طلبك في أي وقت</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>22.44</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>الوقت</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>ترغب في تجديده مبكرا ، نعم موجود في خدمتك ، كما يمكننا تجديد التجديد المبكر من خلال الرمز #566* أو من تمام أو من خلالنا بموجب طلبك في أي وقت</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>37.12</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>وقت</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>لحظة معي.</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>40.19</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>توصيل حزمة X50</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>هل سنجدد باقة Connect X50 بالضبط؟</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>43.76</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>50 قرش</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>لقد خصم منك 50 قرشا فقط مقابل مكالماتنا. لذلك لا توجد مشكلة ، سأضيفها لك وأجددها لك على الفور</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>43.76</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>المكالمات</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>لقد خصم منك 50 قرشا فقط مقابل مكالماتنا. لذلك لا توجد مشكلة ، سأضيفها لك وأجددها لك على الفور</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>43.76</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>مشكلة</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>لقد خصم منك 50 قرشا فقط مقابل مكالماتنا. لذلك لا توجد مشكلة ، سأضيفها لك وأجددها لك على الفور</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>48.84</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>لحظة</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>لحظة واحدة معي ، حسنا؟</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>59.81</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>اللحظات</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>لحظات معي.</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>76.97</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>رسالة تأكيد</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>هذه هي الطريقة التي اتخذت بها الإجراء نيابة عنك بالفعل ، وكانت الباقة جادة معك ، ولحظات لك رسالة تأكيد.</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>76.97</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>إجراء</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>هذه هي الطريقة التي اتخذت بها الإجراء نيابة عنك بالفعل ، وكانت الباقة جادة معك ، ولحظات لك رسالة تأكيد.</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>76.97</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>باقه</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>هذه هي الطريقة التي اتخذت بها الإجراء نيابة عنك بالفعل ، وكانت الباقة جادة معك ، ولحظات لك رسالة تأكيد.</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>76.97</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>اللحظات</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>هذه هي الطريقة التي اتخذت بها الإجراء نيابة عنك بالفعل ، وكانت الباقة جادة معك ، ولحظات لك رسالة تأكيد.</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>81.69</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>حسنا يا سيدي.</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>82.69</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>خدمة</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>في خدمتك ، أي استفسار ترغب في مساعدتك فيه.</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>82.69</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>الاستفسار</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>في خدمتك ، أي استفسار ترغب في مساعدتك فيه.</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>85.67</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>أمر</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>شكرا تحت قيادتك.</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 17</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>86.71</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>الف وداعا</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>سعيد بالطلب بألف وداع ، وداعا.</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>نهال</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>صباح الخير يا مكالمات نهال معك صباح الخير؟</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>المكالمات</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>صباح الخير يا مكالمات نهال معك صباح الخير؟</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>طيب</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>الخير يا سيدي. صباح الخير.</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>سيد</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>الخير يا سيدي. صباح الخير.</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>السيد محمود</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>السيد محمود، أهلا وسهلا.</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>9.51</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>نفس الرقم</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>سيدي ، المكالمات على نفس الرقم أو رقم آخر؟ نعم ، نأمل أن يكون بخير؟</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>9.51</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>سيد</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>سيدي ، المكالمات على نفس الرقم أو رقم آخر؟ نعم ، نأمل أن يكون بخير؟</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>9.51</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>المكالمات</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>سيدي ، المكالمات على نفس الرقم أو رقم آخر؟ نعم ، نأمل أن يكون بخير؟</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>14.60</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>خدمة العملاء</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>اتصلت بخدمة العملاء على الحجز. والله.</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>14.60</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>حجز</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>اتصلت بخدمة العملاء على الحجز. والله.</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>14.60</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>الله</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>اتصلت بخدمة العملاء على الحجز. والله.</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>19.80</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>ايلي</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>كان لدي إيلي.</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>24.27</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>شخص</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>عندما يرن لي شخص ما ، عندما يرن لي شخص ما ويغلق الهاتف ، ولا يوجد ثالث في العالم.</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>24.27</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>الهاتف</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>عندما يرن لي شخص ما ، عندما يرن لي شخص ما ويغلق الهاتف ، ولا يوجد ثالث في العالم.</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>24.27</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>ثالث</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>عندما يرن لي شخص ما ، عندما يرن لي شخص ما ويغلق الهاتف ، ولا يوجد ثالث في العالم.</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>24.27</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>عالم</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>عندما يرن لي شخص ما ، عندما يرن لي شخص ما ويغلق الهاتف ، ولا يوجد ثالث في العالم.</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>29.83</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>أسمعك.</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>34.08</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>المكالمات</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>سالب</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>فأعادها لي ولكن يبدو أن المكالمات قد ألغيت مرة أخرى؟</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
           <t>-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>43.64</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>مشكلة</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>المشكلة؟</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>45.76</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>السيد محمود</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>لا مشكلة يا سيد محمود.</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>45.76</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>مشكلة</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>لا مشكلة يا سيد محمود.</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>58.35</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>اللحظات</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>اللحظات.</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>68.72</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>القداسه</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>هل قداستكم منخرطون معنا بالفعل؟ أعني ، لقد ألغيت ذلك بالفعل.</t>
-        </is>
-      </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>71.48</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>خدمة</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>مختلط</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>لقد وجدت أنها ليست خدمة. كل شيء عظيم. أعدت لي وليس كل شيء كبير.</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>80.84</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>حضور</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>وجودك فيه وليس وجودك فيه؟</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>80.84</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>حضور</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>وجودك فيه وليس وجودك فيه؟</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>حسنًا؟ حسنًا شكرًا لك.</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr"/>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>حسنا ، حسنا ، شكرا.</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>خدمة</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>في خدمتك ، هل تعرف أي شيء آخر؟</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>88.07</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>نفس اليومين</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>لا، ولكن يسمح بنفس اليومين لمدة ساعة عندما لا أرغب في المشاركة فيها، إذا استلمتها وأعدت الاشتراك فيها.</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>88.07</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>ساعة</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>لا، ولكن يسمح بنفس اليومين لمدة ساعة عندما لا أرغب في المشاركة فيها، إذا استلمتها وأعدت الاشتراك فيها.</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>ترتيب</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>أرسل لك طلبك رسالة على الفور.</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>رسالة</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>أرسل لك طلبك رسالة على الفور.</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>ترتيب</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>أرسل لك طلبك رسالة على الفور.</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>رسالة</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>أرسل لك طلبك رسالة على الفور.</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>96.27</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>محايد</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>حسنا، حسنا.</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>اتصل بالرقم 18</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>100.32</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>موجب</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>وداعا شكرا.</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>

--- a/Powerbi_reports/arb_dim_dataset.xlsx
+++ b/Powerbi_reports/arb_dim_dataset.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,3699 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>audio_filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>duration_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>keywords_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dialouge_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sort sentiment_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>دعا</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>صباح الخير، هل هذه دعوة لك؟</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>البروفيسورة هناء معايا معايا حنا</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>صباح الخير سيدي. البروفيسورة هناء معايا معاية حنا. مرحبا بك يا سيدي ، هل يمكنني مساعدتك على نفس الرقم أو على رقم آخر؟</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>صباح الخير سيدي</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>صباح الخير سيدي. البروفيسورة هناء معايا معاية حنا. مرحبا بك يا سيدي ، هل يمكنني مساعدتك على نفس الرقم أو على رقم آخر؟</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>نفس الرقم</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>صباح الخير سيدي. البروفيسورة هناء معايا معاية حنا. مرحبا بك يا سيدي ، هل يمكنني مساعدتك على نفس الرقم أو على رقم آخر؟</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>رقمين</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>نعم ، إنه رقمان تحت بعضهما البعض. الشيء المهم هو أنني أريد أن تخبرني أنه لا يمكنني الاتصال ، هل وصلت إلى الحد الائتماني؟</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>شيء مهم</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>نعم ، إنه رقمان تحت بعضهما البعض. الشيء المهم هو أنني أريد أن تخبرني أنه لا يمكنني الاتصال ، هل وصلت إلى الحد الائتماني؟</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>الحد الائتماني</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>نعم ، إنه رقمان تحت بعضهما البعض. الشيء المهم هو أنني أريد أن تخبرني أنه لا يمكنني الاتصال ، هل وصلت إلى الحد الائتماني؟</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>الحد الائتماني</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>إذا قلت لوجودك ، فقد وصلت إلى حد الائتمان للحظة معي.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>حضور</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>إذا قلت لوجودك ، فقد وصلت إلى حد الائتمان للحظة معي.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>وقت</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>إذا قلت لوجودك ، فقد وصلت إلى حد الائتمان للحظة معي.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>حسنا، حسنا.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ما الذي كنت تتحدث عنه يا سيدي؟</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>لا أعرف؟ أعني ، كم كنت أتحدث؟</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>36.97</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>أرقام عادية</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>يعني انك تتحدث الى ارقام عادية يعني اتصالات او اي شبكة اخرى؟ لا توجد أرقام متخصصة؟</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>36.97</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>شبكة أخرى</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>يعني انك تتحدث الى ارقام عادية يعني اتصالات او اي شبكة اخرى؟ لا توجد أرقام متخصصة؟</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>36.97</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>أرقام متخصصة</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>يعني انك تتحدث الى ارقام عادية يعني اتصالات او اي شبكة اخرى؟ لا توجد أرقام متخصصة؟</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>36.97</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>الاتصالات السلكيه</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>يعني انك تتحدث الى ارقام عادية يعني اتصالات او اي شبكة اخرى؟ لا توجد أرقام متخصصة؟</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>حسنًا؟</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>49.88</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>وقت</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>لحظة وحدة.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>49.88</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>وحدة</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>لحظة وحدة.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>54.64</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>مشكلة</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>هذه المشكلة معك منذ متى؟</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>57.84</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>نفس السعر</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>الآن هو نفس السعر لمدة 1/4 ساعة.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>57.84</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1/4 ساعة</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>الآن هو نفس السعر لمدة 1/4 ساعة.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>61.67</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>حسنًا.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>خطوة تنشيطية</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>أنا واضح لي أنك معي لدقائق. لا مشكلة ، حسنا. سأعمل فقط من أجلك كخطوة تنشيطية من خلالي ، وسأتحدث إليك مرة أخرى. فقط تأكد من أن الخدمة عملت معك أم أن هناك مشكلة؟</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>محضر</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>أنا واضح لي أنك معي لدقائق. لا مشكلة ، حسنا. سأعمل فقط من أجلك كخطوة تنشيطية من خلالي ، وسأتحدث إليك مرة أخرى. فقط تأكد من أن الخدمة عملت معك أم أن هناك مشكلة؟</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>مشكلة</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>أنا واضح لي أنك معي لدقائق. لا مشكلة ، حسنا. سأعمل فقط من أجلك كخطوة تنشيطية من خلالي ، وسأتحدث إليك مرة أخرى. فقط تأكد من أن الخدمة عملت معك أم أن هناك مشكلة؟</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>خدمة</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>أنا واضح لي أنك معي لدقائق. لا مشكلة ، حسنا. سأعمل فقط من أجلك كخطوة تنشيطية من خلالي ، وسأتحدث إليك مرة أخرى. فقط تأكد من أن الخدمة عملت معك أم أن هناك مشكلة؟</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>وضع الطيران</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>لكنني سأطلب إذنك لتشغيل وضع الطيران بعد إنهاء المكالمة لمدة دقيقة ، حسنا؟ وسأتحدث إليكم مرة أخرى بعد أن أعمل من أجلكم خطوة التفعيل من خلالي.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>خطوة التفعيل</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>لكنني سأطلب إذنك لتشغيل وضع الطيران بعد إنهاء المكالمة لمدة دقيقة ، حسنا؟ وسأتحدث إليكم مرة أخرى بعد أن أعمل من أجلكم خطوة التفعيل من خلالي.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>إذن</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>لكنني سأطلب إذنك لتشغيل وضع الطيران بعد إنهاء المكالمة لمدة دقيقة ، حسنا؟ وسأتحدث إليكم مرة أخرى بعد أن أعمل من أجلكم خطوة التفعيل من خلالي.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>دعا</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>لكنني سأطلب إذنك لتشغيل وضع الطيران بعد إنهاء المكالمة لمدة دقيقة ، حسنا؟ وسأتحدث إليكم مرة أخرى بعد أن أعمل من أجلكم خطوة التفعيل من خلالي.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>دقيقة</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>لكنني سأطلب إذنك لتشغيل وضع الطيران بعد إنهاء المكالمة لمدة دقيقة ، حسنا؟ وسأتحدث إليكم مرة أخرى بعد أن أعمل من أجلكم خطوة التفعيل من خلالي.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>أسئلة أخرى</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>أود أن أوضح لكم أي أسئلة أخرى.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>سعيد أبو خالد</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>لا يا حبيبتي ، شكرا لك ، لقد كرمتني يا فينديم. سعيد أبو خالد منك؟ الاتصالات؟ أتمنى لك يوما جميلا مع وداعا ، رحمة ، وداعا.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>يوم جميل</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>لا يا حبيبتي ، شكرا لك ، لقد كرمتني يا فينديم. سعيد أبو خالد منك؟ الاتصالات؟ أتمنى لك يوما جميلا مع وداعا ، رحمة ، وداعا.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>الاتصالات</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>لا يا حبيبتي ، شكرا لك ، لقد كرمتني يا فينديم. سعيد أبو خالد منك؟ الاتصالات؟ أتمنى لك يوما جميلا مع وداعا ، رحمة ، وداعا.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>وداعًا</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>لا يا حبيبتي ، شكرا لك ، لقد كرمتني يا فينديم. سعيد أبو خالد منك؟ الاتصالات؟ أتمنى لك يوما جميلا مع وداعا ، رحمة ، وداعا.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>رحم</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>لا يا حبيبتي ، شكرا لك ، لقد كرمتني يا فينديم. سعيد أبو خالد منك؟ الاتصالات؟ أتمنى لك يوما جميلا مع وداعا ، رحمة ، وداعا.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>106.55</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>سلام</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>السلام عليكم.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>نفس الرقم</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>صباح الخير. جهات الاتصال التي تحبها معك. صباح الخير سيدي. صباح الخير. أهلا بك يا سيدي. أخبارك يا أستاذ والحمد لله الآن على نفس الرقم الذي تتحدث معي. أوه ، أنا آسف ، بالطبع ، شرفك ، لا ، لا ، وأنت لا تهتم ، لأن لدي وظيفة فقط ، والآن لدي فاتورة 1300 وأردت دفع جزء منها.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>جهات الاتصال</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>صباح الخير. جهات الاتصال التي تحبها معك. صباح الخير سيدي. صباح الخير. أهلا بك يا سيدي. أخبارك يا أستاذ والحمد لله الآن على نفس الرقم الذي تتحدث معي. أوه ، أنا آسف ، بالطبع ، شرفك ، لا ، لا ، وأنت لا تهتم ، لأن لدي وظيفة فقط ، والآن لدي فاتورة 1300 وأردت دفع جزء منها.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>الصباح</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>صباح الخير. جهات الاتصال التي تحبها معك. صباح الخير سيدي. صباح الخير. أهلا بك يا سيدي. أخبارك يا أستاذ والحمد لله الآن على نفس الرقم الذي تتحدث معي. أوه ، أنا آسف ، بالطبع ، شرفك ، لا ، لا ، وأنت لا تهتم ، لأن لدي وظيفة فقط ، والآن لدي فاتورة 1300 وأردت دفع جزء منها.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>سيد</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>صباح الخير. جهات الاتصال التي تحبها معك. صباح الخير سيدي. صباح الخير. أهلا بك يا سيدي. أخبارك يا أستاذ والحمد لله الآن على نفس الرقم الذي تتحدث معي. أوه ، أنا آسف ، بالطبع ، شرفك ، لا ، لا ، وأنت لا تهتم ، لأن لدي وظيفة فقط ، والآن لدي فاتورة 1300 وأردت دفع جزء منها.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>خبر</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>صباح الخير. جهات الاتصال التي تحبها معك. صباح الخير سيدي. صباح الخير. أهلا بك يا سيدي. أخبارك يا أستاذ والحمد لله الآن على نفس الرقم الذي تتحدث معي. أوه ، أنا آسف ، بالطبع ، شرفك ، لا ، لا ، وأنت لا تهتم ، لأن لدي وظيفة فقط ، والآن لدي فاتورة 1300 وأردت دفع جزء منها.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>أستاذ</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>صباح الخير. جهات الاتصال التي تحبها معك. صباح الخير سيدي. صباح الخير. أهلا بك يا سيدي. أخبارك يا أستاذ والحمد لله الآن على نفس الرقم الذي تتحدث معي. أوه ، أنا آسف ، بالطبع ، شرفك ، لا ، لا ، وأنت لا تهتم ، لأن لدي وظيفة فقط ، والآن لدي فاتورة 1300 وأردت دفع جزء منها.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>الله</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>صباح الخير. جهات الاتصال التي تحبها معك. صباح الخير سيدي. صباح الخير. أهلا بك يا سيدي. أخبارك يا أستاذ والحمد لله الآن على نفس الرقم الذي تتحدث معي. أوه ، أنا آسف ، بالطبع ، شرفك ، لا ، لا ، وأنت لا تهتم ، لأن لدي وظيفة فقط ، والآن لدي فاتورة 1300 وأردت دفع جزء منها.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>شرف</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>صباح الخير. جهات الاتصال التي تحبها معك. صباح الخير سيدي. صباح الخير. أهلا بك يا سيدي. أخبارك يا أستاذ والحمد لله الآن على نفس الرقم الذي تتحدث معي. أوه ، أنا آسف ، بالطبع ، شرفك ، لا ، لا ، وأنت لا تهتم ، لأن لدي وظيفة فقط ، والآن لدي فاتورة 1300 وأردت دفع جزء منها.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>مهمة</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>صباح الخير. جهات الاتصال التي تحبها معك. صباح الخير سيدي. صباح الخير. أهلا بك يا سيدي. أخبارك يا أستاذ والحمد لله الآن على نفس الرقم الذي تتحدث معي. أوه ، أنا آسف ، بالطبع ، شرفك ، لا ، لا ، وأنت لا تهتم ، لأن لدي وظيفة فقط ، والآن لدي فاتورة 1300 وأردت دفع جزء منها.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>فاتورة</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>صباح الخير. جهات الاتصال التي تحبها معك. صباح الخير سيدي. صباح الخير. أهلا بك يا سيدي. أخبارك يا أستاذ والحمد لله الآن على نفس الرقم الذي تتحدث معي. أوه ، أنا آسف ، بالطبع ، شرفك ، لا ، لا ، وأنت لا تهتم ، لأن لدي وظيفة فقط ، والآن لدي فاتورة 1300 وأردت دفع جزء منها.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>جزء</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>صباح الخير. جهات الاتصال التي تحبها معك. صباح الخير سيدي. صباح الخير. أهلا بك يا سيدي. أخبارك يا أستاذ والحمد لله الآن على نفس الرقم الذي تتحدث معي. أوه ، أنا آسف ، بالطبع ، شرفك ، لا ، لا ، وأنت لا تهتم ، لأن لدي وظيفة فقط ، والآن لدي فاتورة 1300 وأردت دفع جزء منها.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>الجزء التالي</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>الجزء التالي من الشهر.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>شهر</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>الجزء التالي من الشهر.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>الشهر المقبل</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>يهدف هذا العمل إلى يعني الأقساط. آه. لكنني لا أريد أن أفتح. أريد أن أدفعها ، على سبيل المثال ، من بداية الشهر المقبل؟</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>عمل</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>يهدف هذا العمل إلى يعني الأقساط. آه. لكنني لا أريد أن أفتح. أريد أن أدفعها ، على سبيل المثال ، من بداية الشهر المقبل؟</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>اقساط</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>يهدف هذا العمل إلى يعني الأقساط. آه. لكنني لا أريد أن أفتح. أريد أن أدفعها ، على سبيل المثال ، من بداية الشهر المقبل؟</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>مثل</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>يهدف هذا العمل إلى يعني الأقساط. آه. لكنني لا أريد أن أفتح. أريد أن أدفعها ، على سبيل المثال ، من بداية الشهر المقبل؟</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>بدء</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>يهدف هذا العمل إلى يعني الأقساط. آه. لكنني لا أريد أن أفتح. أريد أن أدفعها ، على سبيل المثال ، من بداية الشهر المقبل؟</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>الشهر المقبل</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>يعني هل تريد اقساطها من بداية الشهر القادم ؟ أسمعك؟ نعم ، جزء وفي نهاية الشهر أدفع الجزء الثاني في يوم واحد كان لديك الشهر التالي.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>الجزء الثاني</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>يعني هل تريد اقساطها من بداية الشهر القادم ؟ أسمعك؟ نعم ، جزء وفي نهاية الشهر أدفع الجزء الثاني في يوم واحد كان لديك الشهر التالي.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>اقساط</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>يعني هل تريد اقساطها من بداية الشهر القادم ؟ أسمعك؟ نعم ، جزء وفي نهاية الشهر أدفع الجزء الثاني في يوم واحد كان لديك الشهر التالي.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>بدء</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>يعني هل تريد اقساطها من بداية الشهر القادم ؟ أسمعك؟ نعم ، جزء وفي نهاية الشهر أدفع الجزء الثاني في يوم واحد كان لديك الشهر التالي.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>انتهاء</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>يعني هل تريد اقساطها من بداية الشهر القادم ؟ أسمعك؟ نعم ، جزء وفي نهاية الشهر أدفع الجزء الثاني في يوم واحد كان لديك الشهر التالي.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>47.63</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>الشهر المقبل</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>يعني يوم ربما في السادس او السابع طيب انظر عندك انتهاء صلاحية على اي حال حتى الخامس من الشهر القادم اصلا جميل جدا حسنا فلا يلزمك دفع اي شي الان معك حتى الشهر القادم الان اريد ان ارفع</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>47.63</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>يوم</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>يعني يوم ربما في السادس او السابع طيب انظر عندك انتهاء صلاحية على اي حال حتى الخامس من الشهر القادم اصلا جميل جدا حسنا فلا يلزمك دفع اي شي الان معك حتى الشهر القادم الان اريد ان ارفع</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>47.63</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>انقضاء</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>يعني يوم ربما في السادس او السابع طيب انظر عندك انتهاء صلاحية على اي حال حتى الخامس من الشهر القادم اصلا جميل جدا حسنا فلا يلزمك دفع اي شي الان معك حتى الشهر القادم الان اريد ان ارفع</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>يوم</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ألا تدفع أي شيء ، الآن هو اليوم 56 ، وهو يوم 56 ، وهو يوم 56؟</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ألا تدفع أي شيء ، الآن هو اليوم 56 ، وهو يوم 56 ، وهو يوم 56؟</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>فاتورة</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>هل ستتحدث إلينا وتخبرنا أنني أريد دفع هذه الفاتورة؟ أو هل أريد دفع هذه الفاتورة؟</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ثلاثة أقساط</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>حسنًا؟ طيب سنجعلك ثلاثة اقساط باول موعد ستدفعه والمرة الثانية ستدفع طالما تريد الدفع مرتين حسنا؟ لا مشكلة ، في احسن الاحوال. إذا كان هناك أي شيء جديد ، فسوف أتابع أيضا مع قسم الائتمان وأتصل بك. إذا كان هناك أي شيء.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>التاريخ الأول</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>حسنًا؟ طيب سنجعلك ثلاثة اقساط باول موعد ستدفعه والمرة الثانية ستدفع طالما تريد الدفع مرتين حسنا؟ لا مشكلة ، في احسن الاحوال. إذا كان هناك أي شيء جديد ، فسوف أتابع أيضا مع قسم الائتمان وأتصل بك. إذا كان هناك أي شيء.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>قسم الائتمان</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>حسنًا؟ طيب سنجعلك ثلاثة اقساط باول موعد ستدفعه والمرة الثانية ستدفع طالما تريد الدفع مرتين حسنا؟ لا مشكلة ، في احسن الاحوال. إذا كان هناك أي شيء جديد ، فسوف أتابع أيضا مع قسم الائتمان وأتصل بك. إذا كان هناك أي شيء.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ثان</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>حسنًا؟ طيب سنجعلك ثلاثة اقساط باول موعد ستدفعه والمرة الثانية ستدفع طالما تريد الدفع مرتين حسنا؟ لا مشكلة ، في احسن الاحوال. إذا كان هناك أي شيء جديد ، فسوف أتابع أيضا مع قسم الائتمان وأتصل بك. إذا كان هناك أي شيء.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>مشكلة</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>حسنًا؟ طيب سنجعلك ثلاثة اقساط باول موعد ستدفعه والمرة الثانية ستدفع طالما تريد الدفع مرتين حسنا؟ لا مشكلة ، في احسن الاحوال. إذا كان هناك أي شيء جديد ، فسوف أتابع أيضا مع قسم الائتمان وأتصل بك. إذا كان هناك أي شيء.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ميرسي ليكي وداعا</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>أوه ، أتمنى لو كنت تحت أمرك ، بالطبع ، أندم على أي استفسار آخر يمكنني مساعدتك فيه. شكرا لك يا حياتي. الرحمة ليكي وداعا في خدمتك يا سيدي. نحن سعداء لخدمتك في الاتصالات. رافقتك السلامة.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>استفسار آخر</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>أوه ، أتمنى لو كنت تحت أمرك ، بالطبع ، أندم على أي استفسار آخر يمكنني مساعدتك فيه. شكرا لك يا حياتي. الرحمة ليكي وداعا في خدمتك يا سيدي. نحن سعداء لخدمتك في الاتصالات. رافقتك السلامة.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>أمر</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>أوه ، أتمنى لو كنت تحت أمرك ، بالطبع ، أندم على أي استفسار آخر يمكنني مساعدتك فيه. شكرا لك يا حياتي. الرحمة ليكي وداعا في خدمتك يا سيدي. نحن سعداء لخدمتك في الاتصالات. رافقتك السلامة.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>حياة</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>أوه ، أتمنى لو كنت تحت أمرك ، بالطبع ، أندم على أي استفسار آخر يمكنني مساعدتك فيه. شكرا لك يا حياتي. الرحمة ليكي وداعا في خدمتك يا سيدي. نحن سعداء لخدمتك في الاتصالات. رافقتك السلامة.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>خدمة</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>أوه ، أتمنى لو كنت تحت أمرك ، بالطبع ، أندم على أي استفسار آخر يمكنني مساعدتك فيه. شكرا لك يا حياتي. الرحمة ليكي وداعا في خدمتك يا سيدي. نحن سعداء لخدمتك في الاتصالات. رافقتك السلامة.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>سيد</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>أوه ، أتمنى لو كنت تحت أمرك ، بالطبع ، أندم على أي استفسار آخر يمكنني مساعدتك فيه. شكرا لك يا حياتي. الرحمة ليكي وداعا في خدمتك يا سيدي. نحن سعداء لخدمتك في الاتصالات. رافقتك السلامة.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>الاتصالات</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>مختلط</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>أوه ، أتمنى لو كنت تحت أمرك ، بالطبع ، أندم على أي استفسار آخر يمكنني مساعدتك فيه. شكرا لك يا حياتي. الرحمة ليكي وداعا في خدمتك يا سيدي. نحن سعداء لخدمتك في الاتصالات. رافقتك السلامة.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>السيد محمد</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>صباح الخير يا اتصالات معك، صباح الخير، صباح الخير سيد محمد، ما هي أخبارك؟ بخير والحمد لله الحمد لله ارجو الاستفسار عن ما هو الخطأ في النت تحميل هدية على هذا الخط ام ماذا؟</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>الصباح</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>صباح الخير يا اتصالات معك، صباح الخير، صباح الخير سيد محمد، ما هي أخبارك؟ بخير والحمد لله الحمد لله ارجو الاستفسار عن ما هو الخطأ في النت تحميل هدية على هذا الخط ام ماذا؟</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>جهات الاتصال</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>صباح الخير يا اتصالات معك، صباح الخير، صباح الخير سيد محمد، ما هي أخبارك؟ بخير والحمد لله الحمد لله ارجو الاستفسار عن ما هو الخطأ في النت تحميل هدية على هذا الخط ام ماذا؟</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>خبر</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>صباح الخير يا اتصالات معك، صباح الخير، صباح الخير سيد محمد، ما هي أخبارك؟ بخير والحمد لله الحمد لله ارجو الاستفسار عن ما هو الخطأ في النت تحميل هدية على هذا الخط ام ماذا؟</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>الله</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>صباح الخير يا اتصالات معك، صباح الخير، صباح الخير سيد محمد، ما هي أخبارك؟ بخير والحمد لله الحمد لله ارجو الاستفسار عن ما هو الخطأ في النت تحميل هدية على هذا الخط ام ماذا؟</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>صافي</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>صباح الخير يا اتصالات معك، صباح الخير، صباح الخير سيد محمد، ما هي أخبارك؟ بخير والحمد لله الحمد لله ارجو الاستفسار عن ما هو الخطأ في النت تحميل هدية على هذا الخط ام ماذا؟</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>هدية</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>صباح الخير يا اتصالات معك، صباح الخير، صباح الخير سيد محمد، ما هي أخبارك؟ بخير والحمد لله الحمد لله ارجو الاستفسار عن ما هو الخطأ في النت تحميل هدية على هذا الخط ام ماذا؟</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>سطر</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>صباح الخير يا اتصالات معك، صباح الخير، صباح الخير سيد محمد، ما هي أخبارك؟ بخير والحمد لله الحمد لله ارجو الاستفسار عن ما هو الخطأ في النت تحميل هدية على هذا الخط ام ماذا؟</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>صافي</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>ماذا تعني الشبكة؟</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>الله</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>لا للأسف والله اذا كانت هناك عروض تحتاج الى رسالة معها.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>العروض</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>لا للأسف والله اذا كانت هناك عروض تحتاج الى رسالة معها.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>رسالة</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>لا للأسف والله اذا كانت هناك عروض تحتاج الى رسالة معها.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>إنترنت</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>نعم ، هل الإنترنت والانتهاء منها معك؟</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>حاجة صادقة</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>إنه اكتمل؟ حسنا ، ليست هناك حاجة. أنا أستفسر أنه ليس لدي حاجة صادقة لذلك ، وأرى أشخاصا لديهم خطوط يبيعونها كهدية. ليست هناك حاجة بصدق. ما السبب؟</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>شعب</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>إنه اكتمل؟ حسنا ، ليست هناك حاجة. أنا أستفسر أنه ليس لدي حاجة صادقة لذلك ، وأرى أشخاصا لديهم خطوط يبيعونها كهدية. ليست هناك حاجة بصدق. ما السبب؟</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>اسطر</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>إنه اكتمل؟ حسنا ، ليست هناك حاجة. أنا أستفسر أنه ليس لدي حاجة صادقة لذلك ، وأرى أشخاصا لديهم خطوط يبيعونها كهدية. ليست هناك حاجة بصدق. ما السبب؟</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>هدية</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>إنه اكتمل؟ حسنا ، ليست هناك حاجة. أنا أستفسر أنه ليس لدي حاجة صادقة لذلك ، وأرى أشخاصا لديهم خطوط يبيعونها كهدية. ليست هناك حاجة بصدق. ما السبب؟</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>سبب</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>إنه اكتمل؟ حسنا ، ليست هناك حاجة. أنا أستفسر أنه ليس لدي حاجة صادقة لذلك ، وأرى أشخاصا لديهم خطوط يبيعونها كهدية. ليست هناك حاجة بصدق. ما السبب؟</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>سبب</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>لا ، لا يوجد سبب ، ولكن إذا كان ذلك ممكنا ، لكنك تركز على المسجلات التي تجلبنا ، لأن هذه الأسلحة ستبقى فيها إذا كان هناك عرض أو حاجة يمكنك الاستفادة منها.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>مسجلات</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>لا ، لا يوجد سبب ، ولكن إذا كان ذلك ممكنا ، لكنك تركز على المسجلات التي تجلبنا ، لأن هذه الأسلحة ستبقى فيها إذا كان هناك عرض أو حاجة يمكنك الاستفادة منها.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>البنادق</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>لا ، لا يوجد سبب ، ولكن إذا كان ذلك ممكنا ، لكنك تركز على المسجلات التي تجلبنا ، لأن هذه الأسلحة ستبقى فيها إذا كان هناك عرض أو حاجة يمكنك الاستفادة منها.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>عرض</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>لا ، لا يوجد سبب ، ولكن إذا كان ذلك ممكنا ، لكنك تركز على المسجلات التي تجلبنا ، لأن هذه الأسلحة ستبقى فيها إذا كان هناك عرض أو حاجة يمكنك الاستفادة منها.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>احتياج</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>لا ، لا يوجد سبب ، ولكن إذا كان ذلك ممكنا ، لكنك تركز على المسجلات التي تجلبنا ، لأن هذه الأسلحة ستبقى فيها إذا كان هناك عرض أو حاجة يمكنك الاستفادة منها.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>51.07</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>اه في احسن الاحوال.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>54.22</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>أمر</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>تحت أمرك ، هل يمكنني مساعدتك مرة أخرى؟</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>58.70</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>الهدايا</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>قلنا قلنا في الهدايا الصافية ولا حاجة.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>58.70</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>احتياج</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>قلنا قلنا في الهدايا الصافية ولا حاجة.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>62.84</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>إنترنت</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>قلنا أن هناك إنترنت أو أي شيء؟</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>إذا جاء إليك ، فلا تقلق؟</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>مافيش</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>مافيش. ليست هناك حاجة في ذلك.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>احتياج</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>مافيش. ليست هناك حاجة في ذلك.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>استفسار آخر</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>شكرا عذرا. سأحاول أيضا المتابعة معك ، حتى لو كانت هناك حاجة لك ، سأتحدث معك مرة أخرى. حسنًا؟ شكرا لك ، اعذرني على أي شيء تحت قيادتك. أي عفو آخر للتحقيق.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>احتياج</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>شكرا عذرا. سأحاول أيضا المتابعة معك ، حتى لو كانت هناك حاجة لك ، سأتحدث معك مرة أخرى. حسنًا؟ شكرا لك ، اعذرني على أي شيء تحت قيادتك. أي عفو آخر للتحقيق.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>أمر</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>شكرا عذرا. سأحاول أيضا المتابعة معك ، حتى لو كانت هناك حاجة لك ، سأتحدث معك مرة أخرى. حسنًا؟ شكرا لك ، اعذرني على أي شيء تحت قيادتك. أي عفو آخر للتحقيق.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>